--- a/cost_v9.xlsx
+++ b/cost_v9.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97887309-A492-45C2-A95D-B56347C4771B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED678D17-D8AA-466B-9CB4-8A74315A9C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="896" activeTab="1" xr2:uid="{B462BC1A-68D2-4F1C-B637-39A33062791D}"/>
   </bookViews>
@@ -1234,28 +1234,28 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1265,9 +1265,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3088,7 +3085,7 @@
   <dimension ref="A1:W135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E2" sqref="E2:W121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3107,13 +3104,13 @@
     <col min="12" max="12" width="24.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="7"/>
@@ -3162,7 +3159,7 @@
       <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="5" t="s">
@@ -3171,7 +3168,7 @@
       <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>15</v>
       </c>
       <c r="S1" s="5" t="s">
@@ -3180,7 +3177,7 @@
       <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="18" t="s">
         <v>18</v>
       </c>
       <c r="V1" s="5" t="s">
@@ -3227,22 +3224,22 @@
       <c r="N2" s="13">
         <v>1.21</v>
       </c>
-      <c r="O2" s="20"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="12">
         <v>16</v>
       </c>
       <c r="Q2" s="12">
         <v>1.2</v>
       </c>
-      <c r="R2" s="20"/>
+      <c r="R2" s="19"/>
       <c r="S2" s="12">
         <v>9</v>
       </c>
       <c r="T2" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="14">
+      <c r="U2" s="19"/>
+      <c r="V2" s="12">
         <v>1.21</v>
       </c>
       <c r="W2" s="12">
@@ -3290,18 +3287,18 @@
       <c r="N3" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="O3" s="20"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="12">
         <v>10</v>
       </c>
       <c r="Q3" s="12">
         <v>1.1399999999999999</v>
       </c>
-      <c r="R3" s="20"/>
+      <c r="R3" s="19"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="14">
+      <c r="U3" s="19"/>
+      <c r="V3" s="12">
         <v>1.25</v>
       </c>
       <c r="W3" s="12">
@@ -3351,7 +3348,7 @@
       <c r="N4" s="12">
         <v>1</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="19">
         <v>0.25</v>
       </c>
       <c r="P4" s="12">
@@ -3360,13 +3357,13 @@
       <c r="Q4" s="12">
         <v>1</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="19">
         <v>0.99</v>
       </c>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="14">
+      <c r="U4" s="19"/>
+      <c r="V4" s="12">
         <v>1.25</v>
       </c>
       <c r="W4" s="12">
@@ -3416,18 +3413,18 @@
       <c r="N5" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O5" s="20"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="12">
         <v>1</v>
       </c>
       <c r="Q5" s="12">
         <v>1</v>
       </c>
-      <c r="R5" s="20"/>
+      <c r="R5" s="19"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="14">
+      <c r="U5" s="19"/>
+      <c r="V5" s="12">
         <v>1.6</v>
       </c>
       <c r="W5" s="12">
@@ -3477,18 +3474,18 @@
       <c r="N6" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O6" s="20"/>
+      <c r="O6" s="19"/>
       <c r="P6" s="12">
         <v>1</v>
       </c>
       <c r="Q6" s="12">
         <v>1</v>
       </c>
-      <c r="R6" s="20"/>
+      <c r="R6" s="19"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="14">
+      <c r="U6" s="19"/>
+      <c r="V6" s="12">
         <v>1.7</v>
       </c>
       <c r="W6" s="12">
@@ -3538,14 +3535,14 @@
       <c r="N7" s="12">
         <v>1</v>
       </c>
-      <c r="O7" s="20"/>
+      <c r="O7" s="19"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
-      <c r="R7" s="20"/>
+      <c r="R7" s="19"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="14">
+      <c r="U7" s="19"/>
+      <c r="V7" s="12">
         <v>1.3</v>
       </c>
       <c r="W7" s="12">
@@ -3591,14 +3588,14 @@
       <c r="N8" s="12">
         <v>1</v>
       </c>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="12">
         <v>1</v>
       </c>
       <c r="Q8" s="12">
         <v>1</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="19">
         <v>0.8</v>
       </c>
       <c r="S8" s="12">
@@ -3607,11 +3604,11 @@
       <c r="T8" s="12">
         <v>1</v>
       </c>
-      <c r="U8" s="20"/>
-      <c r="V8" s="14">
+      <c r="U8" s="19"/>
+      <c r="V8" s="12">
         <v>1.17</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W8" s="12">
         <v>12000</v>
       </c>
     </row>
@@ -3658,21 +3655,21 @@
       <c r="N9" s="12">
         <v>1</v>
       </c>
-      <c r="O9" s="20"/>
+      <c r="O9" s="19"/>
       <c r="P9" s="12">
         <v>1</v>
       </c>
       <c r="Q9" s="12">
         <v>1</v>
       </c>
-      <c r="R9" s="20"/>
+      <c r="R9" s="19"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="14">
+      <c r="U9" s="19"/>
+      <c r="V9" s="12">
         <v>1.2</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="12">
         <v>28000</v>
       </c>
     </row>
@@ -3719,21 +3716,21 @@
       <c r="N10" s="12">
         <v>1</v>
       </c>
-      <c r="O10" s="20"/>
+      <c r="O10" s="19"/>
       <c r="P10" s="12">
         <v>1.5</v>
       </c>
       <c r="Q10" s="12">
         <v>1</v>
       </c>
-      <c r="R10" s="20"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="14">
+      <c r="U10" s="19"/>
+      <c r="V10" s="12">
         <v>1.2</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W10" s="12">
         <v>40000</v>
       </c>
     </row>
@@ -3780,17 +3777,17 @@
       <c r="N11" s="12">
         <v>1</v>
       </c>
-      <c r="O11" s="20"/>
+      <c r="O11" s="19"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="20"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="14">
+      <c r="U11" s="19"/>
+      <c r="V11" s="12">
         <v>1.2</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="12">
         <v>52000</v>
       </c>
     </row>
@@ -3837,19 +3834,19 @@
       <c r="N12" s="12">
         <v>1</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="19">
         <v>1</v>
       </c>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="20"/>
+      <c r="R12" s="19"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="W12" s="14">
+      <c r="U12" s="19"/>
+      <c r="V12" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="W12" s="12">
         <v>90000</v>
       </c>
     </row>
@@ -3879,36 +3876,36 @@
         <v>100</v>
       </c>
       <c r="I13" s="12">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J13" s="12">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="K13" s="12">
-        <v>1.2</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="L13" s="12">
         <v>1.02</v>
       </c>
       <c r="M13" s="12">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="N13" s="12">
         <v>1</v>
       </c>
-      <c r="O13" s="20">
-        <v>0.8</v>
+      <c r="O13" s="19">
+        <v>0.9</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
-      <c r="R13" s="20"/>
+      <c r="R13" s="19"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="14">
+      <c r="U13" s="19"/>
+      <c r="V13" s="12">
         <v>1.2</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="12">
         <v>95000</v>
       </c>
     </row>
@@ -3934,7 +3931,7 @@
       <c r="G14" s="11">
         <v>500</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="12">
         <v>1.3</v>
       </c>
@@ -3951,13 +3948,13 @@
       <c r="N14" s="12">
         <v>1</v>
       </c>
-      <c r="O14" s="20"/>
+      <c r="O14" s="19"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
-      <c r="R14" s="20"/>
+      <c r="R14" s="19"/>
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="20"/>
+      <c r="U14" s="19"/>
       <c r="V14" s="12">
         <v>1.2</v>
       </c>
@@ -4004,13 +4001,13 @@
       <c r="N15" s="12">
         <v>1</v>
       </c>
-      <c r="O15" s="20"/>
+      <c r="O15" s="19"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
-      <c r="R15" s="20"/>
+      <c r="R15" s="19"/>
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="20"/>
+      <c r="U15" s="19"/>
       <c r="V15" s="12">
         <v>1.3</v>
       </c>
@@ -4040,7 +4037,7 @@
       <c r="G16" s="11">
         <v>5000</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="12">
         <v>1.3</v>
       </c>
@@ -4057,13 +4054,13 @@
       <c r="N16" s="12">
         <v>1</v>
       </c>
-      <c r="O16" s="20"/>
+      <c r="O16" s="19"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
-      <c r="R16" s="20"/>
+      <c r="R16" s="19"/>
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="20"/>
+      <c r="U16" s="19"/>
       <c r="V16" s="12">
         <v>1.3</v>
       </c>
@@ -4110,7 +4107,7 @@
       <c r="N17" s="12">
         <v>1</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="19">
         <v>0.5</v>
       </c>
       <c r="P17" s="12">
@@ -4119,12 +4116,12 @@
       <c r="Q17" s="12">
         <v>1</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="19">
         <v>0.99</v>
       </c>
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
-      <c r="U17" s="20"/>
+      <c r="U17" s="19"/>
       <c r="V17" s="12">
         <v>1.3</v>
       </c>
@@ -4154,15 +4151,15 @@
       <c r="G18" s="11">
         <v>10000</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="12">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="J18" s="12">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="K18" s="12">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12">
@@ -4171,13 +4168,13 @@
       <c r="N18" s="12">
         <v>1</v>
       </c>
-      <c r="O18" s="20"/>
+      <c r="O18" s="19"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
-      <c r="R18" s="20"/>
+      <c r="R18" s="19"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
-      <c r="U18" s="20"/>
+      <c r="U18" s="19"/>
       <c r="V18" s="12">
         <v>1.2</v>
       </c>
@@ -4224,15 +4221,15 @@
       <c r="N19" s="12">
         <v>1</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="19">
         <v>0.99</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
-      <c r="R19" s="20"/>
+      <c r="R19" s="19"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
-      <c r="U19" s="20"/>
+      <c r="U19" s="19"/>
       <c r="V19" s="12">
         <v>1.3</v>
       </c>
@@ -4262,7 +4259,7 @@
       <c r="G20" s="11">
         <v>20000</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="12">
         <v>1.3</v>
       </c>
@@ -4279,7 +4276,7 @@
       <c r="N20" s="12">
         <v>1</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="19">
         <v>0.5</v>
       </c>
       <c r="P20" s="12">
@@ -4288,12 +4285,12 @@
       <c r="Q20" s="12">
         <v>1</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="19">
         <v>0.99</v>
       </c>
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
-      <c r="U20" s="20"/>
+      <c r="U20" s="19"/>
       <c r="V20" s="12">
         <v>1.3</v>
       </c>
@@ -4340,13 +4337,13 @@
       <c r="N21" s="12">
         <v>1</v>
       </c>
-      <c r="O21" s="20"/>
+      <c r="O21" s="19"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
-      <c r="R21" s="20"/>
+      <c r="R21" s="19"/>
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
-      <c r="U21" s="20"/>
+      <c r="U21" s="19"/>
       <c r="V21" s="12">
         <v>1.3</v>
       </c>
@@ -4376,7 +4373,7 @@
       <c r="G22" s="11">
         <v>100000</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="12">
         <v>1.5</v>
       </c>
@@ -4393,13 +4390,13 @@
       <c r="N22" s="12">
         <v>1</v>
       </c>
-      <c r="O22" s="20"/>
+      <c r="O22" s="19"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
-      <c r="R22" s="20"/>
+      <c r="R22" s="19"/>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
-      <c r="U22" s="20"/>
+      <c r="U22" s="19"/>
       <c r="V22" s="12">
         <v>1.4</v>
       </c>
@@ -4446,13 +4443,13 @@
       <c r="N23" s="12">
         <v>1</v>
       </c>
-      <c r="O23" s="20"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
-      <c r="R23" s="20"/>
+      <c r="R23" s="19"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="20"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="12">
         <v>1.4</v>
       </c>
@@ -4482,7 +4479,7 @@
       <c r="G24" s="11">
         <v>25000</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="12">
         <v>1.5</v>
       </c>
@@ -4499,15 +4496,15 @@
       <c r="N24" s="12">
         <v>1</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="19">
         <v>0.99</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
-      <c r="R24" s="20"/>
+      <c r="R24" s="19"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="U24" s="20"/>
+      <c r="U24" s="19"/>
       <c r="V24" s="12">
         <v>1.3</v>
       </c>
@@ -4554,7 +4551,7 @@
       <c r="N25" s="12">
         <v>1</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="19">
         <v>0.5</v>
       </c>
       <c r="P25" s="12">
@@ -4563,12 +4560,12 @@
       <c r="Q25" s="12">
         <v>1</v>
       </c>
-      <c r="R25" s="20">
+      <c r="R25" s="19">
         <v>0.99</v>
       </c>
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
-      <c r="U25" s="20"/>
+      <c r="U25" s="19"/>
       <c r="V25" s="12">
         <v>1.3</v>
       </c>
@@ -4598,7 +4595,7 @@
       <c r="G26" s="11">
         <v>100000</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="12">
         <v>1.3</v>
       </c>
@@ -4615,7 +4612,7 @@
       <c r="N26" s="12">
         <v>1</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="19">
         <v>0.5</v>
       </c>
       <c r="P26" s="12">
@@ -4624,12 +4621,12 @@
       <c r="Q26" s="12">
         <v>1</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="19">
         <v>0.99</v>
       </c>
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
-      <c r="U26" s="20"/>
+      <c r="U26" s="19"/>
       <c r="V26" s="12">
         <v>1.3</v>
       </c>
@@ -4676,13 +4673,13 @@
       <c r="N27" s="12">
         <v>1</v>
       </c>
-      <c r="O27" s="20"/>
+      <c r="O27" s="19"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
-      <c r="R27" s="20"/>
+      <c r="R27" s="19"/>
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
-      <c r="U27" s="20"/>
+      <c r="U27" s="19"/>
       <c r="V27" s="12">
         <v>1.4</v>
       </c>
@@ -4712,7 +4709,7 @@
       <c r="G28" s="11">
         <v>50000</v>
       </c>
-      <c r="H28" s="15"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="12">
         <v>1.5</v>
       </c>
@@ -4729,13 +4726,13 @@
       <c r="N28" s="12">
         <v>1</v>
       </c>
-      <c r="O28" s="20"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
-      <c r="R28" s="20"/>
+      <c r="R28" s="19"/>
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
-      <c r="U28" s="20"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="12">
         <v>1.4</v>
       </c>
@@ -4782,13 +4779,13 @@
       <c r="N29" s="12">
         <v>1</v>
       </c>
-      <c r="O29" s="20"/>
+      <c r="O29" s="19"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
-      <c r="R29" s="20"/>
+      <c r="R29" s="19"/>
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
-      <c r="U29" s="20"/>
+      <c r="U29" s="19"/>
       <c r="V29" s="12">
         <v>1.4</v>
       </c>
@@ -4818,7 +4815,7 @@
       <c r="G30" s="11">
         <v>120000</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="12">
         <v>1.5</v>
       </c>
@@ -4835,15 +4832,15 @@
       <c r="N30" s="12">
         <v>1</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="19">
         <v>0.99</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
-      <c r="R30" s="20"/>
+      <c r="R30" s="19"/>
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
-      <c r="U30" s="20"/>
+      <c r="U30" s="19"/>
       <c r="V30" s="12">
         <v>1.3</v>
       </c>
@@ -4875,30 +4872,30 @@
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="12">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J31" s="12">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K31" s="12">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="L31" s="12"/>
       <c r="M31" s="12">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N31" s="12">
         <v>1</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="19">
         <v>0.99</v>
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
-      <c r="R31" s="20"/>
+      <c r="R31" s="19"/>
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
-      <c r="U31" s="20"/>
+      <c r="U31" s="19"/>
       <c r="V31" s="12">
         <v>1.3</v>
       </c>
@@ -4943,22 +4940,22 @@
       <c r="N32" s="13">
         <v>1.216</v>
       </c>
-      <c r="O32" s="20"/>
+      <c r="O32" s="19"/>
       <c r="P32" s="12">
         <v>12</v>
       </c>
       <c r="Q32" s="12">
         <v>1.2</v>
       </c>
-      <c r="R32" s="20"/>
+      <c r="R32" s="19"/>
       <c r="S32" s="12">
         <v>5</v>
       </c>
       <c r="T32" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="U32" s="20"/>
-      <c r="V32" s="14">
+      <c r="U32" s="19"/>
+      <c r="V32" s="12">
         <v>1.21</v>
       </c>
       <c r="W32" s="12">
@@ -5006,18 +5003,18 @@
       <c r="N33" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="O33" s="20"/>
+      <c r="O33" s="19"/>
       <c r="P33" s="12">
         <v>6</v>
       </c>
       <c r="Q33" s="12">
         <v>1.1399999999999999</v>
       </c>
-      <c r="R33" s="20"/>
+      <c r="R33" s="19"/>
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="14">
+      <c r="U33" s="19"/>
+      <c r="V33" s="12">
         <v>1.21</v>
       </c>
       <c r="W33" s="12">
@@ -5067,7 +5064,7 @@
       <c r="N34" s="12">
         <v>1</v>
       </c>
-      <c r="O34" s="20">
+      <c r="O34" s="19">
         <v>0.25</v>
       </c>
       <c r="P34" s="12">
@@ -5076,13 +5073,13 @@
       <c r="Q34" s="12">
         <v>1</v>
       </c>
-      <c r="R34" s="20">
+      <c r="R34" s="19">
         <v>0.99</v>
       </c>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="14">
+      <c r="U34" s="19"/>
+      <c r="V34" s="12">
         <v>1.25</v>
       </c>
       <c r="W34" s="12">
@@ -5132,18 +5129,18 @@
       <c r="N35" s="12">
         <v>1.1399999999999999</v>
       </c>
-      <c r="O35" s="20"/>
+      <c r="O35" s="19"/>
       <c r="P35" s="12">
         <v>1</v>
       </c>
       <c r="Q35" s="12">
         <v>1</v>
       </c>
-      <c r="R35" s="20"/>
+      <c r="R35" s="19"/>
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="14">
+      <c r="U35" s="19"/>
+      <c r="V35" s="12">
         <v>1.6</v>
       </c>
       <c r="W35" s="12">
@@ -5193,18 +5190,18 @@
       <c r="N36" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O36" s="20"/>
+      <c r="O36" s="19"/>
       <c r="P36" s="12">
         <v>1</v>
       </c>
       <c r="Q36" s="12">
         <v>1</v>
       </c>
-      <c r="R36" s="20"/>
+      <c r="R36" s="19"/>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="14">
+      <c r="U36" s="19"/>
+      <c r="V36" s="12">
         <v>1.7</v>
       </c>
       <c r="W36" s="12">
@@ -5254,17 +5251,17 @@
       <c r="N37" s="12">
         <v>1</v>
       </c>
-      <c r="O37" s="20"/>
+      <c r="O37" s="19"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
-      <c r="R37" s="20"/>
+      <c r="R37" s="19"/>
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="W37" s="14">
+      <c r="U37" s="19"/>
+      <c r="V37" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="W37" s="12">
         <v>2000</v>
       </c>
     </row>
@@ -5307,23 +5304,23 @@
       <c r="N38" s="12">
         <v>1</v>
       </c>
-      <c r="O38" s="20"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="12">
         <v>0.5</v>
       </c>
       <c r="Q38" s="12">
         <v>1</v>
       </c>
-      <c r="R38" s="20">
+      <c r="R38" s="19">
         <v>0.4</v>
       </c>
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="14">
+      <c r="U38" s="19"/>
+      <c r="V38" s="12">
         <v>1.25</v>
       </c>
-      <c r="W38" s="14">
+      <c r="W38" s="12">
         <v>16000</v>
       </c>
     </row>
@@ -5370,7 +5367,7 @@
       <c r="N39" s="12">
         <v>1</v>
       </c>
-      <c r="O39" s="20">
+      <c r="O39" s="19">
         <v>0.5</v>
       </c>
       <c r="P39" s="12">
@@ -5379,16 +5376,16 @@
       <c r="Q39" s="12">
         <v>1</v>
       </c>
-      <c r="R39" s="20">
+      <c r="R39" s="19">
         <v>0.5</v>
       </c>
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="14">
+      <c r="U39" s="19"/>
+      <c r="V39" s="12">
         <v>1.4</v>
       </c>
-      <c r="W39" s="14">
+      <c r="W39" s="12">
         <v>40000</v>
       </c>
     </row>
@@ -5435,17 +5432,17 @@
       <c r="N40" s="12">
         <v>1</v>
       </c>
-      <c r="O40" s="20"/>
+      <c r="O40" s="19"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
-      <c r="R40" s="20"/>
+      <c r="R40" s="19"/>
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="14">
+      <c r="U40" s="19"/>
+      <c r="V40" s="12">
         <v>1.2</v>
       </c>
-      <c r="W40" s="14">
+      <c r="W40" s="12">
         <v>40000</v>
       </c>
     </row>
@@ -5492,17 +5489,17 @@
       <c r="N41" s="12">
         <v>1</v>
       </c>
-      <c r="O41" s="20"/>
+      <c r="O41" s="19"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
-      <c r="R41" s="20"/>
+      <c r="R41" s="19"/>
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="14">
+      <c r="U41" s="19"/>
+      <c r="V41" s="12">
         <v>1.2</v>
       </c>
-      <c r="W41" s="14">
+      <c r="W41" s="12">
         <v>52000</v>
       </c>
     </row>
@@ -5549,19 +5546,19 @@
       <c r="N42" s="12">
         <v>1</v>
       </c>
-      <c r="O42" s="20">
+      <c r="O42" s="19">
         <v>0.5</v>
       </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
-      <c r="R42" s="20"/>
+      <c r="R42" s="19"/>
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="W42" s="14">
+      <c r="U42" s="19"/>
+      <c r="V42" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="W42" s="12">
         <v>90000</v>
       </c>
     </row>
@@ -5608,19 +5605,19 @@
       <c r="N43" s="12">
         <v>1</v>
       </c>
-      <c r="O43" s="20">
+      <c r="O43" s="19">
         <v>0.3</v>
       </c>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
-      <c r="R43" s="20"/>
+      <c r="R43" s="19"/>
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="W43" s="14">
+      <c r="U43" s="19"/>
+      <c r="V43" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="W43" s="12">
         <v>95000</v>
       </c>
     </row>
@@ -5663,13 +5660,13 @@
       <c r="N44" s="12">
         <v>1</v>
       </c>
-      <c r="O44" s="20"/>
+      <c r="O44" s="19"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
-      <c r="R44" s="20"/>
+      <c r="R44" s="19"/>
       <c r="S44" s="12"/>
       <c r="T44" s="12"/>
-      <c r="U44" s="20"/>
+      <c r="U44" s="19"/>
       <c r="V44" s="12">
         <v>1.3</v>
       </c>
@@ -5716,13 +5713,13 @@
       <c r="N45" s="12">
         <v>1</v>
       </c>
-      <c r="O45" s="20"/>
+      <c r="O45" s="19"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
-      <c r="R45" s="20"/>
+      <c r="R45" s="19"/>
       <c r="S45" s="12"/>
       <c r="T45" s="12"/>
-      <c r="U45" s="20"/>
+      <c r="U45" s="19"/>
       <c r="V45" s="12">
         <v>1.3</v>
       </c>
@@ -5769,13 +5766,13 @@
       <c r="N46" s="12">
         <v>1</v>
       </c>
-      <c r="O46" s="20"/>
+      <c r="O46" s="19"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
-      <c r="R46" s="20"/>
+      <c r="R46" s="19"/>
       <c r="S46" s="12"/>
       <c r="T46" s="12"/>
-      <c r="U46" s="20"/>
+      <c r="U46" s="19"/>
       <c r="V46" s="12">
         <v>1.3</v>
       </c>
@@ -5822,13 +5819,13 @@
       <c r="N47" s="12">
         <v>1</v>
       </c>
-      <c r="O47" s="20"/>
+      <c r="O47" s="19"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
-      <c r="R47" s="20"/>
+      <c r="R47" s="19"/>
       <c r="S47" s="12"/>
       <c r="T47" s="12"/>
-      <c r="U47" s="20"/>
+      <c r="U47" s="19"/>
       <c r="V47" s="12">
         <v>1.4</v>
       </c>
@@ -5875,13 +5872,13 @@
       <c r="N48" s="12">
         <v>1</v>
       </c>
-      <c r="O48" s="20"/>
+      <c r="O48" s="19"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
-      <c r="R48" s="20"/>
+      <c r="R48" s="19"/>
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
-      <c r="U48" s="20"/>
+      <c r="U48" s="19"/>
       <c r="V48" s="12">
         <v>1.3</v>
       </c>
@@ -5928,13 +5925,13 @@
       <c r="N49" s="12">
         <v>1</v>
       </c>
-      <c r="O49" s="20"/>
+      <c r="O49" s="19"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
-      <c r="R49" s="20"/>
+      <c r="R49" s="19"/>
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
-      <c r="U49" s="20"/>
+      <c r="U49" s="19"/>
       <c r="V49" s="12">
         <v>1.3</v>
       </c>
@@ -5981,13 +5978,13 @@
       <c r="N50" s="12">
         <v>1</v>
       </c>
-      <c r="O50" s="20"/>
+      <c r="O50" s="19"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
-      <c r="R50" s="20"/>
+      <c r="R50" s="19"/>
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
-      <c r="U50" s="20"/>
+      <c r="U50" s="19"/>
       <c r="V50" s="12">
         <v>1.3</v>
       </c>
@@ -6034,13 +6031,13 @@
       <c r="N51" s="12">
         <v>1</v>
       </c>
-      <c r="O51" s="20"/>
+      <c r="O51" s="19"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
-      <c r="R51" s="20"/>
+      <c r="R51" s="19"/>
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
-      <c r="U51" s="20"/>
+      <c r="U51" s="19"/>
       <c r="V51" s="12">
         <v>1.4</v>
       </c>
@@ -6087,7 +6084,7 @@
       <c r="N52" s="12">
         <v>1</v>
       </c>
-      <c r="O52" s="20">
+      <c r="O52" s="19">
         <v>0.5</v>
       </c>
       <c r="P52" s="12">
@@ -6096,12 +6093,12 @@
       <c r="Q52" s="12">
         <v>1</v>
       </c>
-      <c r="R52" s="20">
+      <c r="R52" s="19">
         <v>0.99</v>
       </c>
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
-      <c r="U52" s="20"/>
+      <c r="U52" s="19"/>
       <c r="V52" s="12">
         <v>1.3</v>
       </c>
@@ -6148,13 +6145,13 @@
       <c r="N53" s="12">
         <v>1</v>
       </c>
-      <c r="O53" s="20"/>
+      <c r="O53" s="19"/>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
-      <c r="R53" s="20"/>
+      <c r="R53" s="19"/>
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
-      <c r="U53" s="20"/>
+      <c r="U53" s="19"/>
       <c r="V53" s="12">
         <v>1.3</v>
       </c>
@@ -6201,13 +6198,13 @@
       <c r="N54" s="12">
         <v>1</v>
       </c>
-      <c r="O54" s="20"/>
+      <c r="O54" s="19"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
-      <c r="R54" s="20"/>
+      <c r="R54" s="19"/>
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
-      <c r="U54" s="20"/>
+      <c r="U54" s="19"/>
       <c r="V54" s="12">
         <v>1.3</v>
       </c>
@@ -6254,13 +6251,13 @@
       <c r="N55" s="12">
         <v>1</v>
       </c>
-      <c r="O55" s="20"/>
+      <c r="O55" s="19"/>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
-      <c r="R55" s="20"/>
+      <c r="R55" s="19"/>
       <c r="S55" s="12"/>
       <c r="T55" s="12"/>
-      <c r="U55" s="20"/>
+      <c r="U55" s="19"/>
       <c r="V55" s="12">
         <v>1.3</v>
       </c>
@@ -6307,7 +6304,7 @@
       <c r="N56" s="12">
         <v>1</v>
       </c>
-      <c r="O56" s="20">
+      <c r="O56" s="19">
         <v>0.5</v>
       </c>
       <c r="P56" s="12">
@@ -6316,10 +6313,10 @@
       <c r="Q56" s="12">
         <v>1</v>
       </c>
-      <c r="R56" s="20"/>
+      <c r="R56" s="19"/>
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
-      <c r="U56" s="20"/>
+      <c r="U56" s="19"/>
       <c r="V56" s="12">
         <v>1.3</v>
       </c>
@@ -6366,7 +6363,7 @@
       <c r="N57" s="12">
         <v>1</v>
       </c>
-      <c r="O57" s="20">
+      <c r="O57" s="19">
         <v>0.5</v>
       </c>
       <c r="P57" s="12">
@@ -6375,12 +6372,12 @@
       <c r="Q57" s="12">
         <v>1</v>
       </c>
-      <c r="R57" s="20">
+      <c r="R57" s="19">
         <v>0.99</v>
       </c>
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
-      <c r="U57" s="20"/>
+      <c r="U57" s="19"/>
       <c r="V57" s="12">
         <v>1.3</v>
       </c>
@@ -6427,7 +6424,7 @@
       <c r="N58" s="12">
         <v>1</v>
       </c>
-      <c r="O58" s="20">
+      <c r="O58" s="19">
         <v>0.5</v>
       </c>
       <c r="P58" s="12">
@@ -6436,12 +6433,12 @@
       <c r="Q58" s="12">
         <v>1</v>
       </c>
-      <c r="R58" s="20">
+      <c r="R58" s="19">
         <v>0.99</v>
       </c>
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
-      <c r="U58" s="20"/>
+      <c r="U58" s="19"/>
       <c r="V58" s="12">
         <v>1.3</v>
       </c>
@@ -6488,13 +6485,13 @@
       <c r="N59" s="12">
         <v>1</v>
       </c>
-      <c r="O59" s="20"/>
+      <c r="O59" s="19"/>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
-      <c r="R59" s="20"/>
+      <c r="R59" s="19"/>
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
-      <c r="U59" s="20"/>
+      <c r="U59" s="19"/>
       <c r="V59" s="12">
         <v>1.4</v>
       </c>
@@ -6541,7 +6538,7 @@
       <c r="N60" s="12">
         <v>1</v>
       </c>
-      <c r="O60" s="20">
+      <c r="O60" s="19">
         <v>0.5</v>
       </c>
       <c r="P60" s="12">
@@ -6550,12 +6547,12 @@
       <c r="Q60" s="12">
         <v>1</v>
       </c>
-      <c r="R60" s="20">
+      <c r="R60" s="19">
         <v>0.99</v>
       </c>
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
-      <c r="U60" s="20"/>
+      <c r="U60" s="19"/>
       <c r="V60" s="12">
         <v>1.3</v>
       </c>
@@ -6602,13 +6599,13 @@
       <c r="N61" s="12">
         <v>1</v>
       </c>
-      <c r="O61" s="20"/>
+      <c r="O61" s="19"/>
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
-      <c r="R61" s="20"/>
+      <c r="R61" s="19"/>
       <c r="S61" s="12"/>
       <c r="T61" s="12"/>
-      <c r="U61" s="20"/>
+      <c r="U61" s="19"/>
       <c r="V61" s="12">
         <v>1.4</v>
       </c>
@@ -6653,22 +6650,22 @@
       <c r="N62" s="13">
         <v>1.2050000000000001</v>
       </c>
-      <c r="O62" s="20"/>
+      <c r="O62" s="19"/>
       <c r="P62" s="12">
         <v>24</v>
       </c>
       <c r="Q62" s="13">
         <v>1.2</v>
       </c>
-      <c r="R62" s="20"/>
+      <c r="R62" s="19"/>
       <c r="S62" s="12">
         <v>22</v>
       </c>
       <c r="T62" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="U62" s="20"/>
-      <c r="V62" s="14">
+      <c r="U62" s="19"/>
+      <c r="V62" s="12">
         <v>1.22</v>
       </c>
       <c r="W62" s="12">
@@ -6716,18 +6713,18 @@
       <c r="N63" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="O63" s="20"/>
+      <c r="O63" s="19"/>
       <c r="P63" s="12">
         <v>23</v>
       </c>
       <c r="Q63" s="12">
         <v>1.1200000000000001</v>
       </c>
-      <c r="R63" s="20"/>
+      <c r="R63" s="19"/>
       <c r="S63" s="12"/>
       <c r="T63" s="12"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="14">
+      <c r="U63" s="19"/>
+      <c r="V63" s="12">
         <v>1.2</v>
       </c>
       <c r="W63" s="12">
@@ -6777,7 +6774,7 @@
       <c r="N64" s="12">
         <v>1</v>
       </c>
-      <c r="O64" s="20">
+      <c r="O64" s="19">
         <v>0.25</v>
       </c>
       <c r="P64" s="12">
@@ -6786,16 +6783,16 @@
       <c r="Q64" s="12">
         <v>1</v>
       </c>
-      <c r="R64" s="20">
+      <c r="R64" s="19">
         <v>0.99</v>
       </c>
       <c r="S64" s="12"/>
       <c r="T64" s="12"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="14">
+      <c r="U64" s="19"/>
+      <c r="V64" s="12">
         <v>1.25</v>
       </c>
-      <c r="W64" s="14">
+      <c r="W64" s="12">
         <v>16000</v>
       </c>
     </row>
@@ -6842,17 +6839,17 @@
       <c r="N65" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O65" s="20"/>
+      <c r="O65" s="19"/>
       <c r="P65" s="12">
         <v>1</v>
       </c>
       <c r="Q65" s="12">
         <v>1</v>
       </c>
-      <c r="R65" s="20"/>
+      <c r="R65" s="19"/>
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
-      <c r="U65" s="20"/>
+      <c r="U65" s="19"/>
       <c r="V65" s="12">
         <v>1.6</v>
       </c>
@@ -6903,17 +6900,17 @@
       <c r="N66" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O66" s="20"/>
+      <c r="O66" s="19"/>
       <c r="P66" s="12">
         <v>1</v>
       </c>
       <c r="Q66" s="12">
         <v>1</v>
       </c>
-      <c r="R66" s="20"/>
+      <c r="R66" s="19"/>
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
-      <c r="U66" s="20"/>
+      <c r="U66" s="19"/>
       <c r="V66" s="12">
         <v>1.7</v>
       </c>
@@ -6960,15 +6957,15 @@
       <c r="N67" s="12">
         <v>1</v>
       </c>
-      <c r="O67" s="20">
+      <c r="O67" s="19">
         <v>0.99</v>
       </c>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
-      <c r="R67" s="20"/>
+      <c r="R67" s="19"/>
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
-      <c r="U67" s="20"/>
+      <c r="U67" s="19"/>
       <c r="V67" s="12">
         <v>1.3</v>
       </c>
@@ -7019,17 +7016,19 @@
       <c r="N68" s="12">
         <v>1</v>
       </c>
-      <c r="O68" s="20"/>
+      <c r="O68" s="19">
+        <v>1</v>
+      </c>
       <c r="P68" s="12">
         <v>0.3</v>
       </c>
       <c r="Q68" s="12">
         <v>1</v>
       </c>
-      <c r="R68" s="20"/>
+      <c r="R68" s="19"/>
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
-      <c r="U68" s="20"/>
+      <c r="U68" s="19"/>
       <c r="V68" s="12">
         <v>1.4</v>
       </c>
@@ -7080,17 +7079,17 @@
       <c r="N69" s="12">
         <v>1</v>
       </c>
-      <c r="O69" s="20"/>
+      <c r="O69" s="19"/>
       <c r="P69" s="12">
         <v>2</v>
       </c>
       <c r="Q69" s="12">
         <v>1</v>
       </c>
-      <c r="R69" s="20"/>
+      <c r="R69" s="19"/>
       <c r="S69" s="12"/>
       <c r="T69" s="12"/>
-      <c r="U69" s="20"/>
+      <c r="U69" s="19"/>
       <c r="V69" s="12">
         <v>1.17</v>
       </c>
@@ -7141,17 +7140,17 @@
       <c r="N70" s="12">
         <v>1</v>
       </c>
-      <c r="O70" s="20"/>
+      <c r="O70" s="19"/>
       <c r="P70" s="12">
         <v>6</v>
       </c>
       <c r="Q70" s="12">
         <v>1</v>
       </c>
-      <c r="R70" s="20"/>
+      <c r="R70" s="19"/>
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
-      <c r="U70" s="20"/>
+      <c r="U70" s="19"/>
       <c r="V70" s="12">
         <v>1.3</v>
       </c>
@@ -7202,13 +7201,13 @@
       <c r="N71" s="12">
         <v>1</v>
       </c>
-      <c r="O71" s="20"/>
+      <c r="O71" s="19"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
-      <c r="R71" s="20"/>
+      <c r="R71" s="19"/>
       <c r="S71" s="12"/>
       <c r="T71" s="12"/>
-      <c r="U71" s="20"/>
+      <c r="U71" s="19"/>
       <c r="V71" s="12">
         <v>1.2</v>
       </c>
@@ -7254,20 +7253,20 @@
         <v>1.05</v>
       </c>
       <c r="M72" s="12">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N72" s="12">
         <v>1</v>
       </c>
-      <c r="O72" s="20">
+      <c r="O72" s="19">
         <v>1</v>
       </c>
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
-      <c r="R72" s="20"/>
+      <c r="R72" s="19"/>
       <c r="S72" s="12"/>
       <c r="T72" s="12"/>
-      <c r="U72" s="20"/>
+      <c r="U72" s="19"/>
       <c r="V72" s="12">
         <v>1.3</v>
       </c>
@@ -7318,15 +7317,15 @@
       <c r="N73" s="12">
         <v>1</v>
       </c>
-      <c r="O73" s="20">
+      <c r="O73" s="19">
         <v>0.5</v>
       </c>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
-      <c r="R73" s="20"/>
+      <c r="R73" s="19"/>
       <c r="S73" s="12"/>
       <c r="T73" s="12"/>
-      <c r="U73" s="20"/>
+      <c r="U73" s="19"/>
       <c r="V73" s="12">
         <v>1.4</v>
       </c>
@@ -7373,13 +7372,13 @@
       <c r="N74" s="12">
         <v>1</v>
       </c>
-      <c r="O74" s="20"/>
+      <c r="O74" s="19"/>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
-      <c r="R74" s="20"/>
+      <c r="R74" s="19"/>
       <c r="S74" s="12"/>
       <c r="T74" s="12"/>
-      <c r="U74" s="20"/>
+      <c r="U74" s="19"/>
       <c r="V74" s="12">
         <v>1.3</v>
       </c>
@@ -7420,19 +7419,19 @@
         <v>1.3</v>
       </c>
       <c r="L75" s="12"/>
-      <c r="M75" s="14">
+      <c r="M75" s="12">
         <v>0.2</v>
       </c>
       <c r="N75" s="12">
         <v>1</v>
       </c>
-      <c r="O75" s="20"/>
+      <c r="O75" s="19"/>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
-      <c r="R75" s="20"/>
+      <c r="R75" s="19"/>
       <c r="S75" s="12"/>
       <c r="T75" s="12"/>
-      <c r="U75" s="20"/>
+      <c r="U75" s="19"/>
       <c r="V75" s="12">
         <v>1.3</v>
       </c>
@@ -7479,15 +7478,15 @@
       <c r="N76" s="12">
         <v>1</v>
       </c>
-      <c r="O76" s="20">
+      <c r="O76" s="19">
         <v>0.3</v>
       </c>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
-      <c r="R76" s="20"/>
+      <c r="R76" s="19"/>
       <c r="S76" s="12"/>
       <c r="T76" s="12"/>
-      <c r="U76" s="20"/>
+      <c r="U76" s="19"/>
       <c r="V76" s="12">
         <v>1.4</v>
       </c>
@@ -7534,7 +7533,7 @@
       <c r="N77" s="12">
         <v>1</v>
       </c>
-      <c r="O77" s="20">
+      <c r="O77" s="19">
         <v>0.5</v>
       </c>
       <c r="P77" s="12">
@@ -7543,12 +7542,12 @@
       <c r="Q77" s="12">
         <v>1</v>
       </c>
-      <c r="R77" s="20">
+      <c r="R77" s="19">
         <v>0.99</v>
       </c>
       <c r="S77" s="12"/>
       <c r="T77" s="12"/>
-      <c r="U77" s="20"/>
+      <c r="U77" s="19"/>
       <c r="V77" s="12">
         <v>1.3</v>
       </c>
@@ -7595,13 +7594,13 @@
       <c r="N78" s="12">
         <v>1</v>
       </c>
-      <c r="O78" s="20"/>
+      <c r="O78" s="19"/>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
-      <c r="R78" s="20"/>
+      <c r="R78" s="19"/>
       <c r="S78" s="12"/>
       <c r="T78" s="12"/>
-      <c r="U78" s="20"/>
+      <c r="U78" s="19"/>
       <c r="V78" s="12">
         <v>1.4</v>
       </c>
@@ -7648,13 +7647,13 @@
       <c r="N79" s="12">
         <v>1</v>
       </c>
-      <c r="O79" s="20"/>
+      <c r="O79" s="19"/>
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
-      <c r="R79" s="20"/>
+      <c r="R79" s="19"/>
       <c r="S79" s="12"/>
       <c r="T79" s="12"/>
-      <c r="U79" s="20"/>
+      <c r="U79" s="19"/>
       <c r="V79" s="12">
         <v>1.3</v>
       </c>
@@ -7701,7 +7700,7 @@
       <c r="N80" s="12">
         <v>1</v>
       </c>
-      <c r="O80" s="20">
+      <c r="O80" s="19">
         <v>0.5</v>
       </c>
       <c r="P80" s="12">
@@ -7710,12 +7709,12 @@
       <c r="Q80" s="12">
         <v>1</v>
       </c>
-      <c r="R80" s="20">
+      <c r="R80" s="19">
         <v>0.99</v>
       </c>
       <c r="S80" s="12"/>
       <c r="T80" s="12"/>
-      <c r="U80" s="20"/>
+      <c r="U80" s="19"/>
       <c r="V80" s="12">
         <v>1.3</v>
       </c>
@@ -7762,13 +7761,13 @@
       <c r="N81" s="12">
         <v>1</v>
       </c>
-      <c r="O81" s="20"/>
+      <c r="O81" s="19"/>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
-      <c r="R81" s="20"/>
+      <c r="R81" s="19"/>
       <c r="S81" s="12"/>
       <c r="T81" s="12"/>
-      <c r="U81" s="20"/>
+      <c r="U81" s="19"/>
       <c r="V81" s="12">
         <v>1.4</v>
       </c>
@@ -7815,13 +7814,13 @@
       <c r="N82" s="12">
         <v>1</v>
       </c>
-      <c r="O82" s="20"/>
+      <c r="O82" s="19"/>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
-      <c r="R82" s="20"/>
+      <c r="R82" s="19"/>
       <c r="S82" s="12"/>
       <c r="T82" s="12"/>
-      <c r="U82" s="20"/>
+      <c r="U82" s="19"/>
       <c r="V82" s="12">
         <v>1.4</v>
       </c>
@@ -7868,15 +7867,15 @@
       <c r="N83" s="12">
         <v>1</v>
       </c>
-      <c r="O83" s="20">
+      <c r="O83" s="19">
         <v>0.9</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
-      <c r="R83" s="20"/>
+      <c r="R83" s="19"/>
       <c r="S83" s="12"/>
       <c r="T83" s="12"/>
-      <c r="U83" s="20"/>
+      <c r="U83" s="19"/>
       <c r="V83" s="12">
         <v>1.3</v>
       </c>
@@ -7923,7 +7922,7 @@
       <c r="N84" s="12">
         <v>1</v>
       </c>
-      <c r="O84" s="20">
+      <c r="O84" s="19">
         <v>0.5</v>
       </c>
       <c r="P84" s="12">
@@ -7932,12 +7931,12 @@
       <c r="Q84" s="12">
         <v>1</v>
       </c>
-      <c r="R84" s="20">
+      <c r="R84" s="19">
         <v>0.99</v>
       </c>
       <c r="S84" s="12"/>
       <c r="T84" s="12"/>
-      <c r="U84" s="20"/>
+      <c r="U84" s="19"/>
       <c r="V84" s="12">
         <v>1.3</v>
       </c>
@@ -7984,13 +7983,13 @@
       <c r="N85" s="12">
         <v>1</v>
       </c>
-      <c r="O85" s="20"/>
+      <c r="O85" s="19"/>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
-      <c r="R85" s="20"/>
+      <c r="R85" s="19"/>
       <c r="S85" s="12"/>
       <c r="T85" s="12"/>
-      <c r="U85" s="20"/>
+      <c r="U85" s="19"/>
       <c r="V85" s="12">
         <v>1.4</v>
       </c>
@@ -8037,13 +8036,13 @@
       <c r="N86" s="12">
         <v>1</v>
       </c>
-      <c r="O86" s="20"/>
+      <c r="O86" s="19"/>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
-      <c r="R86" s="20"/>
+      <c r="R86" s="19"/>
       <c r="S86" s="12"/>
       <c r="T86" s="12"/>
-      <c r="U86" s="20"/>
+      <c r="U86" s="19"/>
       <c r="V86" s="12">
         <v>1.3</v>
       </c>
@@ -8090,13 +8089,13 @@
       <c r="N87" s="12">
         <v>1</v>
       </c>
-      <c r="O87" s="20"/>
+      <c r="O87" s="19"/>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
-      <c r="R87" s="20"/>
+      <c r="R87" s="19"/>
       <c r="S87" s="12"/>
       <c r="T87" s="12"/>
-      <c r="U87" s="20"/>
+      <c r="U87" s="19"/>
       <c r="V87" s="12">
         <v>1.4</v>
       </c>
@@ -8143,13 +8142,13 @@
       <c r="N88" s="12">
         <v>1</v>
       </c>
-      <c r="O88" s="20"/>
+      <c r="O88" s="19"/>
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
-      <c r="R88" s="20"/>
+      <c r="R88" s="19"/>
       <c r="S88" s="12"/>
       <c r="T88" s="12"/>
-      <c r="U88" s="20"/>
+      <c r="U88" s="19"/>
       <c r="V88" s="12">
         <v>1.4</v>
       </c>
@@ -8196,13 +8195,13 @@
       <c r="N89" s="12">
         <v>1</v>
       </c>
-      <c r="O89" s="20"/>
+      <c r="O89" s="19"/>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
-      <c r="R89" s="20"/>
+      <c r="R89" s="19"/>
       <c r="S89" s="12"/>
       <c r="T89" s="12"/>
-      <c r="U89" s="20"/>
+      <c r="U89" s="19"/>
       <c r="V89" s="12">
         <v>1.4</v>
       </c>
@@ -8249,7 +8248,7 @@
       <c r="N90" s="12">
         <v>1</v>
       </c>
-      <c r="O90" s="20">
+      <c r="O90" s="19">
         <v>0.5</v>
       </c>
       <c r="P90" s="12">
@@ -8258,12 +8257,12 @@
       <c r="Q90" s="12">
         <v>1</v>
       </c>
-      <c r="R90" s="20">
+      <c r="R90" s="19">
         <v>0.99</v>
       </c>
       <c r="S90" s="12"/>
       <c r="T90" s="12"/>
-      <c r="U90" s="20"/>
+      <c r="U90" s="19"/>
       <c r="V90" s="12">
         <v>1.3</v>
       </c>
@@ -8310,13 +8309,13 @@
       <c r="N91" s="12">
         <v>1</v>
       </c>
-      <c r="O91" s="20"/>
+      <c r="O91" s="19"/>
       <c r="P91" s="12"/>
       <c r="Q91" s="12"/>
-      <c r="R91" s="20"/>
+      <c r="R91" s="19"/>
       <c r="S91" s="12"/>
       <c r="T91" s="12"/>
-      <c r="U91" s="20"/>
+      <c r="U91" s="19"/>
       <c r="V91" s="12">
         <v>1.4</v>
       </c>
@@ -8361,22 +8360,22 @@
       <c r="N92" s="12">
         <v>1.21</v>
       </c>
-      <c r="O92" s="20"/>
+      <c r="O92" s="19"/>
       <c r="P92" s="12">
         <v>16</v>
       </c>
-      <c r="Q92" s="14">
+      <c r="Q92" s="12">
         <v>1.2</v>
       </c>
-      <c r="R92" s="20"/>
+      <c r="R92" s="19"/>
       <c r="S92" s="12">
         <v>11</v>
       </c>
       <c r="T92" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="U92" s="20"/>
-      <c r="V92" s="14">
+      <c r="U92" s="19"/>
+      <c r="V92" s="12">
         <v>1.22</v>
       </c>
       <c r="W92" s="12">
@@ -8409,10 +8408,10 @@
         <v>9</v>
       </c>
       <c r="I93" s="12">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="J93" s="12">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="K93" s="12"/>
       <c r="L93" s="12">
@@ -8424,18 +8423,18 @@
       <c r="N93" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="O93" s="20"/>
+      <c r="O93" s="19"/>
       <c r="P93" s="12">
         <v>12</v>
       </c>
       <c r="Q93" s="12">
         <v>1.1399999999999999</v>
       </c>
-      <c r="R93" s="20"/>
+      <c r="R93" s="19"/>
       <c r="S93" s="12"/>
       <c r="T93" s="12"/>
-      <c r="U93" s="20"/>
-      <c r="V93" s="14">
+      <c r="U93" s="19"/>
+      <c r="V93" s="12">
         <v>1.22</v>
       </c>
       <c r="W93" s="12">
@@ -8459,10 +8458,10 @@
         <v>20000</v>
       </c>
       <c r="F94" s="11">
-        <v>20000</v>
+        <v>15000</v>
       </c>
       <c r="G94" s="11">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="H94" s="11">
         <v>10</v>
@@ -8485,7 +8484,7 @@
       <c r="N94" s="12">
         <v>1</v>
       </c>
-      <c r="O94" s="20">
+      <c r="O94" s="19">
         <v>0.25</v>
       </c>
       <c r="P94" s="12">
@@ -8494,12 +8493,12 @@
       <c r="Q94" s="12">
         <v>1</v>
       </c>
-      <c r="R94" s="20">
+      <c r="R94" s="19">
         <v>0.99</v>
       </c>
       <c r="S94" s="12"/>
       <c r="T94" s="12"/>
-      <c r="U94" s="20"/>
+      <c r="U94" s="19"/>
       <c r="V94" s="12">
         <v>1.25</v>
       </c>
@@ -8550,18 +8549,18 @@
       <c r="N95" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O95" s="20"/>
+      <c r="O95" s="19"/>
       <c r="P95" s="12">
         <v>1</v>
       </c>
       <c r="Q95" s="12">
         <v>1</v>
       </c>
-      <c r="R95" s="20"/>
+      <c r="R95" s="19"/>
       <c r="S95" s="12"/>
       <c r="T95" s="12"/>
-      <c r="U95" s="20"/>
-      <c r="V95" s="14">
+      <c r="U95" s="19"/>
+      <c r="V95" s="12">
         <v>1.7</v>
       </c>
       <c r="W95" s="12">
@@ -8611,17 +8610,17 @@
       <c r="N96" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O96" s="20"/>
+      <c r="O96" s="19"/>
       <c r="P96" s="12">
         <v>1</v>
       </c>
       <c r="Q96" s="12">
         <v>1</v>
       </c>
-      <c r="R96" s="20"/>
+      <c r="R96" s="19"/>
       <c r="S96" s="12"/>
       <c r="T96" s="12"/>
-      <c r="U96" s="20"/>
+      <c r="U96" s="19"/>
       <c r="V96" s="12">
         <v>1.8</v>
       </c>
@@ -8668,15 +8667,15 @@
       <c r="N97" s="12">
         <v>1</v>
       </c>
-      <c r="O97" s="20">
+      <c r="O97" s="19">
         <v>0.5</v>
       </c>
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
-      <c r="R97" s="20"/>
+      <c r="R97" s="19"/>
       <c r="S97" s="12"/>
       <c r="T97" s="12"/>
-      <c r="U97" s="20"/>
+      <c r="U97" s="19"/>
       <c r="V97" s="12">
         <v>1.35</v>
       </c>
@@ -8704,7 +8703,7 @@
         <v>15000</v>
       </c>
       <c r="G98" s="11">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="H98" s="11"/>
       <c r="I98" s="12">
@@ -8723,13 +8722,13 @@
       <c r="N98" s="12">
         <v>1</v>
       </c>
-      <c r="O98" s="20"/>
+      <c r="O98" s="19"/>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
-      <c r="R98" s="20"/>
+      <c r="R98" s="19"/>
       <c r="S98" s="12"/>
       <c r="T98" s="12"/>
-      <c r="U98" s="20"/>
+      <c r="U98" s="19"/>
       <c r="V98" s="12">
         <v>1.2</v>
       </c>
@@ -8780,17 +8779,17 @@
       <c r="N99" s="12">
         <v>1</v>
       </c>
-      <c r="O99" s="20"/>
+      <c r="O99" s="19"/>
       <c r="P99" s="12">
         <v>6</v>
       </c>
       <c r="Q99" s="12">
         <v>1</v>
       </c>
-      <c r="R99" s="20"/>
+      <c r="R99" s="19"/>
       <c r="S99" s="12"/>
       <c r="T99" s="12"/>
-      <c r="U99" s="20"/>
+      <c r="U99" s="19"/>
       <c r="V99" s="12">
         <v>1.18</v>
       </c>
@@ -8841,13 +8840,13 @@
       <c r="N100" s="12">
         <v>1</v>
       </c>
-      <c r="O100" s="20"/>
+      <c r="O100" s="19"/>
       <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
-      <c r="R100" s="20"/>
+      <c r="R100" s="19"/>
       <c r="S100" s="12"/>
       <c r="T100" s="12"/>
-      <c r="U100" s="20"/>
+      <c r="U100" s="19"/>
       <c r="V100" s="12">
         <v>1.2</v>
       </c>
@@ -8881,32 +8880,32 @@
         <v>140</v>
       </c>
       <c r="I101" s="12">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="J101" s="12">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="K101" s="12">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="L101" s="12">
         <v>1.05</v>
       </c>
       <c r="M101" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N101" s="12">
         <v>1</v>
       </c>
-      <c r="O101" s="20">
-        <v>0.25</v>
+      <c r="O101" s="19">
+        <v>0.3</v>
       </c>
       <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
-      <c r="R101" s="20"/>
+      <c r="R101" s="19"/>
       <c r="S101" s="12"/>
       <c r="T101" s="12"/>
-      <c r="U101" s="20"/>
+      <c r="U101" s="19"/>
       <c r="V101" s="12">
         <v>1.8</v>
       </c>
@@ -8957,15 +8956,15 @@
       <c r="N102" s="12">
         <v>1</v>
       </c>
-      <c r="O102" s="20">
+      <c r="O102" s="19">
         <v>0.7</v>
       </c>
       <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
-      <c r="R102" s="20"/>
+      <c r="R102" s="19"/>
       <c r="S102" s="12"/>
       <c r="T102" s="12"/>
-      <c r="U102" s="20"/>
+      <c r="U102" s="19"/>
       <c r="V102" s="12">
         <v>1.3</v>
       </c>
@@ -9016,15 +9015,15 @@
       <c r="N103" s="12">
         <v>1</v>
       </c>
-      <c r="O103" s="20">
+      <c r="O103" s="19">
         <v>0.3</v>
       </c>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
-      <c r="R103" s="20"/>
+      <c r="R103" s="19"/>
       <c r="S103" s="12"/>
       <c r="T103" s="12"/>
-      <c r="U103" s="20"/>
+      <c r="U103" s="19"/>
       <c r="V103" s="12">
         <v>1.3</v>
       </c>
@@ -9071,15 +9070,15 @@
       <c r="N104" s="12">
         <v>1</v>
       </c>
-      <c r="O104" s="20">
+      <c r="O104" s="19">
         <v>0.3</v>
       </c>
       <c r="P104" s="12"/>
       <c r="Q104" s="12"/>
-      <c r="R104" s="20"/>
+      <c r="R104" s="19"/>
       <c r="S104" s="12"/>
       <c r="T104" s="12"/>
-      <c r="U104" s="20"/>
+      <c r="U104" s="19"/>
       <c r="V104" s="12">
         <v>1.4</v>
       </c>
@@ -9126,13 +9125,13 @@
       <c r="N105" s="12">
         <v>1</v>
       </c>
-      <c r="O105" s="20"/>
+      <c r="O105" s="19"/>
       <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
-      <c r="R105" s="20"/>
+      <c r="R105" s="19"/>
       <c r="S105" s="12"/>
       <c r="T105" s="12"/>
-      <c r="U105" s="20"/>
+      <c r="U105" s="19"/>
       <c r="V105" s="12">
         <v>1.3</v>
       </c>
@@ -9179,15 +9178,15 @@
       <c r="N106" s="12">
         <v>1</v>
       </c>
-      <c r="O106" s="20">
+      <c r="O106" s="19">
         <v>0.5</v>
       </c>
       <c r="P106" s="12"/>
       <c r="Q106" s="12"/>
-      <c r="R106" s="20"/>
+      <c r="R106" s="19"/>
       <c r="S106" s="12"/>
       <c r="T106" s="12"/>
-      <c r="U106" s="20"/>
+      <c r="U106" s="19"/>
       <c r="V106" s="12">
         <v>1.4</v>
       </c>
@@ -9234,13 +9233,13 @@
       <c r="N107" s="12">
         <v>1</v>
       </c>
-      <c r="O107" s="20"/>
+      <c r="O107" s="19"/>
       <c r="P107" s="12"/>
       <c r="Q107" s="12"/>
-      <c r="R107" s="20"/>
+      <c r="R107" s="19"/>
       <c r="S107" s="12"/>
       <c r="T107" s="12"/>
-      <c r="U107" s="20"/>
+      <c r="U107" s="19"/>
       <c r="V107" s="12">
         <v>1.4</v>
       </c>
@@ -9287,13 +9286,13 @@
       <c r="N108" s="12">
         <v>1</v>
       </c>
-      <c r="O108" s="20"/>
+      <c r="O108" s="19"/>
       <c r="P108" s="12"/>
       <c r="Q108" s="12"/>
-      <c r="R108" s="20"/>
+      <c r="R108" s="19"/>
       <c r="S108" s="12"/>
       <c r="T108" s="12"/>
-      <c r="U108" s="20"/>
+      <c r="U108" s="19"/>
       <c r="V108" s="12">
         <v>1.4</v>
       </c>
@@ -9340,13 +9339,13 @@
       <c r="N109" s="12">
         <v>1</v>
       </c>
-      <c r="O109" s="20"/>
+      <c r="O109" s="19"/>
       <c r="P109" s="12"/>
       <c r="Q109" s="12"/>
-      <c r="R109" s="20"/>
+      <c r="R109" s="19"/>
       <c r="S109" s="12"/>
       <c r="T109" s="12"/>
-      <c r="U109" s="20"/>
+      <c r="U109" s="19"/>
       <c r="V109" s="12">
         <v>1.4</v>
       </c>
@@ -9393,15 +9392,15 @@
       <c r="N110" s="12">
         <v>1</v>
       </c>
-      <c r="O110" s="20">
+      <c r="O110" s="19">
         <v>0.99</v>
       </c>
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
-      <c r="R110" s="20"/>
+      <c r="R110" s="19"/>
       <c r="S110" s="12"/>
       <c r="T110" s="12"/>
-      <c r="U110" s="20"/>
+      <c r="U110" s="19"/>
       <c r="V110" s="12">
         <v>1.3</v>
       </c>
@@ -9448,13 +9447,13 @@
       <c r="N111" s="12">
         <v>1</v>
       </c>
-      <c r="O111" s="20"/>
+      <c r="O111" s="19"/>
       <c r="P111" s="12"/>
       <c r="Q111" s="12"/>
-      <c r="R111" s="20"/>
+      <c r="R111" s="19"/>
       <c r="S111" s="12"/>
       <c r="T111" s="12"/>
-      <c r="U111" s="20"/>
+      <c r="U111" s="19"/>
       <c r="V111" s="12">
         <v>1.2</v>
       </c>
@@ -9501,13 +9500,13 @@
       <c r="N112" s="12">
         <v>1</v>
       </c>
-      <c r="O112" s="20"/>
+      <c r="O112" s="19"/>
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
-      <c r="R112" s="20"/>
+      <c r="R112" s="19"/>
       <c r="S112" s="12"/>
       <c r="T112" s="12"/>
-      <c r="U112" s="20"/>
+      <c r="U112" s="19"/>
       <c r="V112" s="12">
         <v>1.4</v>
       </c>
@@ -9554,13 +9553,13 @@
       <c r="N113" s="12">
         <v>1</v>
       </c>
-      <c r="O113" s="20"/>
+      <c r="O113" s="19"/>
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
-      <c r="R113" s="20"/>
+      <c r="R113" s="19"/>
       <c r="S113" s="12"/>
       <c r="T113" s="12"/>
-      <c r="U113" s="20"/>
+      <c r="U113" s="19"/>
       <c r="V113" s="12">
         <v>1.2</v>
       </c>
@@ -9607,13 +9606,13 @@
       <c r="N114" s="12">
         <v>1</v>
       </c>
-      <c r="O114" s="20"/>
+      <c r="O114" s="19"/>
       <c r="P114" s="12"/>
       <c r="Q114" s="12"/>
-      <c r="R114" s="20"/>
+      <c r="R114" s="19"/>
       <c r="S114" s="12"/>
       <c r="T114" s="12"/>
-      <c r="U114" s="20"/>
+      <c r="U114" s="19"/>
       <c r="V114" s="12">
         <v>1.4</v>
       </c>
@@ -9660,13 +9659,13 @@
       <c r="N115" s="12">
         <v>1</v>
       </c>
-      <c r="O115" s="20"/>
+      <c r="O115" s="19"/>
       <c r="P115" s="12"/>
       <c r="Q115" s="12"/>
-      <c r="R115" s="20"/>
+      <c r="R115" s="19"/>
       <c r="S115" s="12"/>
       <c r="T115" s="12"/>
-      <c r="U115" s="20"/>
+      <c r="U115" s="19"/>
       <c r="V115" s="12">
         <v>1.3</v>
       </c>
@@ -9713,15 +9712,15 @@
       <c r="N116" s="12">
         <v>1</v>
       </c>
-      <c r="O116" s="20">
+      <c r="O116" s="19">
         <v>0.99</v>
       </c>
       <c r="P116" s="12"/>
       <c r="Q116" s="12"/>
-      <c r="R116" s="20"/>
+      <c r="R116" s="19"/>
       <c r="S116" s="12"/>
       <c r="T116" s="12"/>
-      <c r="U116" s="20"/>
+      <c r="U116" s="19"/>
       <c r="V116" s="12">
         <v>1.3</v>
       </c>
@@ -9768,13 +9767,13 @@
       <c r="N117" s="12">
         <v>1</v>
       </c>
-      <c r="O117" s="20"/>
+      <c r="O117" s="19"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
-      <c r="R117" s="20"/>
+      <c r="R117" s="19"/>
       <c r="S117" s="12"/>
       <c r="T117" s="12"/>
-      <c r="U117" s="20"/>
+      <c r="U117" s="19"/>
       <c r="V117" s="12">
         <v>1.4</v>
       </c>
@@ -9821,13 +9820,13 @@
       <c r="N118" s="12">
         <v>1</v>
       </c>
-      <c r="O118" s="20"/>
+      <c r="O118" s="19"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
-      <c r="R118" s="20"/>
+      <c r="R118" s="19"/>
       <c r="S118" s="12"/>
       <c r="T118" s="12"/>
-      <c r="U118" s="20"/>
+      <c r="U118" s="19"/>
       <c r="V118" s="12">
         <v>1.4</v>
       </c>
@@ -9874,13 +9873,13 @@
       <c r="N119" s="12">
         <v>1</v>
       </c>
-      <c r="O119" s="20"/>
+      <c r="O119" s="19"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="12"/>
-      <c r="R119" s="20"/>
+      <c r="R119" s="19"/>
       <c r="S119" s="12"/>
       <c r="T119" s="12"/>
-      <c r="U119" s="20"/>
+      <c r="U119" s="19"/>
       <c r="V119" s="12">
         <v>1.4</v>
       </c>
@@ -9927,7 +9926,7 @@
       <c r="N120" s="12">
         <v>1</v>
       </c>
-      <c r="O120" s="20">
+      <c r="O120" s="19">
         <v>0.5</v>
       </c>
       <c r="P120" s="12">
@@ -9936,12 +9935,12 @@
       <c r="Q120" s="12">
         <v>1</v>
       </c>
-      <c r="R120" s="20">
+      <c r="R120" s="19">
         <v>0.99</v>
       </c>
       <c r="S120" s="12"/>
       <c r="T120" s="12"/>
-      <c r="U120" s="20"/>
+      <c r="U120" s="19"/>
       <c r="V120" s="12">
         <v>1.3</v>
       </c>
@@ -9988,13 +9987,13 @@
       <c r="N121" s="12">
         <v>1</v>
       </c>
-      <c r="O121" s="20"/>
+      <c r="O121" s="19"/>
       <c r="P121" s="12"/>
       <c r="Q121" s="12"/>
-      <c r="R121" s="20"/>
+      <c r="R121" s="19"/>
       <c r="S121" s="12"/>
       <c r="T121" s="12"/>
-      <c r="U121" s="20"/>
+      <c r="U121" s="19"/>
       <c r="V121" s="12">
         <v>1.4</v>
       </c>
@@ -10003,58 +10002,58 @@
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="Q125" s="17"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="Q125" s="16"/>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="Q126" s="17"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="Q126" s="16"/>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="Q127" s="17"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="Q127" s="16"/>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="Q128" s="17"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="Q128" s="16"/>
     </row>
     <row r="129" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
     </row>
     <row r="131" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
     </row>
     <row r="132" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
     </row>
     <row r="133" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
     </row>
     <row r="134" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
     </row>
     <row r="135" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10091,13 +10090,13 @@
     <col min="12" max="12" width="24.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="16.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="25.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="20" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="7"/>
@@ -10146,7 +10145,7 @@
       <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="18" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="5" t="s">
@@ -10155,7 +10154,7 @@
       <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>15</v>
       </c>
       <c r="S1" s="5" t="s">
@@ -10164,7 +10163,7 @@
       <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="U1" s="18" t="s">
         <v>18</v>
       </c>
       <c r="V1" s="5" t="s">
@@ -10211,22 +10210,22 @@
       <c r="N2" s="13">
         <v>1.21</v>
       </c>
-      <c r="O2" s="20"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="12">
         <v>4</v>
       </c>
       <c r="Q2" s="12">
         <v>1.2</v>
       </c>
-      <c r="R2" s="20"/>
+      <c r="R2" s="19"/>
       <c r="S2" s="12">
         <v>9</v>
       </c>
       <c r="T2" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="U2" s="20"/>
-      <c r="V2" s="14">
+      <c r="U2" s="19"/>
+      <c r="V2" s="12">
         <v>1.21</v>
       </c>
       <c r="W2" s="12">
@@ -10274,18 +10273,18 @@
       <c r="N3" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="O3" s="20"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="12">
         <v>10</v>
       </c>
       <c r="Q3" s="12">
         <v>1.1399999999999999</v>
       </c>
-      <c r="R3" s="20"/>
+      <c r="R3" s="19"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="14">
+      <c r="U3" s="19"/>
+      <c r="V3" s="12">
         <v>1.25</v>
       </c>
       <c r="W3" s="12">
@@ -10335,7 +10334,7 @@
       <c r="N4" s="12">
         <v>1</v>
       </c>
-      <c r="O4" s="20">
+      <c r="O4" s="19">
         <v>0.25</v>
       </c>
       <c r="P4" s="12">
@@ -10344,13 +10343,13 @@
       <c r="Q4" s="12">
         <v>1</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="19">
         <v>0.99</v>
       </c>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="14">
+      <c r="U4" s="19"/>
+      <c r="V4" s="12">
         <v>1.25</v>
       </c>
       <c r="W4" s="12">
@@ -10400,18 +10399,18 @@
       <c r="N5" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O5" s="20"/>
+      <c r="O5" s="19"/>
       <c r="P5" s="12">
         <v>1</v>
       </c>
       <c r="Q5" s="12">
         <v>1</v>
       </c>
-      <c r="R5" s="20"/>
+      <c r="R5" s="19"/>
       <c r="S5" s="12"/>
       <c r="T5" s="12"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="14">
+      <c r="U5" s="19"/>
+      <c r="V5" s="12">
         <v>1.8</v>
       </c>
       <c r="W5" s="12">
@@ -10461,18 +10460,18 @@
       <c r="N6" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O6" s="20"/>
+      <c r="O6" s="19"/>
       <c r="P6" s="12">
         <v>1</v>
       </c>
       <c r="Q6" s="12">
         <v>1</v>
       </c>
-      <c r="R6" s="20"/>
+      <c r="R6" s="19"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="14">
+      <c r="U6" s="19"/>
+      <c r="V6" s="12">
         <v>1.9</v>
       </c>
       <c r="W6" s="12">
@@ -10518,14 +10517,14 @@
       <c r="N7" s="12">
         <v>1</v>
       </c>
-      <c r="O7" s="20"/>
+      <c r="O7" s="19"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
-      <c r="R7" s="20"/>
+      <c r="R7" s="19"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="14">
+      <c r="U7" s="19"/>
+      <c r="V7" s="12">
         <v>1.31</v>
       </c>
       <c r="W7" s="12">
@@ -10571,14 +10570,14 @@
       <c r="N8" s="12">
         <v>1</v>
       </c>
-      <c r="O8" s="20"/>
+      <c r="O8" s="19"/>
       <c r="P8" s="12">
         <v>1</v>
       </c>
       <c r="Q8" s="12">
         <v>1</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="19">
         <v>0.8</v>
       </c>
       <c r="S8" s="12">
@@ -10587,11 +10586,11 @@
       <c r="T8" s="12">
         <v>1</v>
       </c>
-      <c r="U8" s="20"/>
-      <c r="V8" s="14">
+      <c r="U8" s="19"/>
+      <c r="V8" s="12">
         <v>1.17</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W8" s="12">
         <v>12000</v>
       </c>
     </row>
@@ -10638,21 +10637,21 @@
       <c r="N9" s="12">
         <v>1</v>
       </c>
-      <c r="O9" s="20"/>
+      <c r="O9" s="19"/>
       <c r="P9" s="12">
         <v>0.5</v>
       </c>
       <c r="Q9" s="12">
         <v>1</v>
       </c>
-      <c r="R9" s="20"/>
+      <c r="R9" s="19"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="14">
+      <c r="U9" s="19"/>
+      <c r="V9" s="12">
         <v>1.33</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="12">
         <v>28000</v>
       </c>
     </row>
@@ -10699,21 +10698,21 @@
       <c r="N10" s="12">
         <v>1</v>
       </c>
-      <c r="O10" s="20"/>
+      <c r="O10" s="19"/>
       <c r="P10" s="12">
         <v>1.5</v>
       </c>
       <c r="Q10" s="12">
         <v>1</v>
       </c>
-      <c r="R10" s="20"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="12"/>
       <c r="T10" s="12"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="14">
+      <c r="U10" s="19"/>
+      <c r="V10" s="12">
         <v>1.2</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W10" s="12">
         <v>40000</v>
       </c>
     </row>
@@ -10760,17 +10759,17 @@
       <c r="N11" s="12">
         <v>1</v>
       </c>
-      <c r="O11" s="20"/>
+      <c r="O11" s="19"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="20"/>
+      <c r="R11" s="19"/>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="14">
+      <c r="U11" s="19"/>
+      <c r="V11" s="12">
         <v>1.29</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="12">
         <v>52000</v>
       </c>
     </row>
@@ -10817,19 +10816,19 @@
       <c r="N12" s="12">
         <v>1</v>
       </c>
-      <c r="O12" s="20">
+      <c r="O12" s="19">
         <v>1</v>
       </c>
       <c r="P12" s="12"/>
       <c r="Q12" s="12"/>
-      <c r="R12" s="20"/>
+      <c r="R12" s="19"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="14">
+      <c r="U12" s="19"/>
+      <c r="V12" s="12">
         <v>1.35</v>
       </c>
-      <c r="W12" s="14">
+      <c r="W12" s="12">
         <v>120000</v>
       </c>
     </row>
@@ -10876,19 +10875,19 @@
       <c r="N13" s="12">
         <v>1</v>
       </c>
-      <c r="O13" s="20">
+      <c r="O13" s="19">
         <v>0.8</v>
       </c>
       <c r="P13" s="12"/>
       <c r="Q13" s="12"/>
-      <c r="R13" s="20"/>
+      <c r="R13" s="19"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="14">
+      <c r="U13" s="19"/>
+      <c r="V13" s="12">
         <v>1.2</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="12">
         <v>120000</v>
       </c>
     </row>
@@ -10914,7 +10913,7 @@
       <c r="G14" s="11">
         <v>500</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="12">
         <v>1.3</v>
       </c>
@@ -10931,13 +10930,13 @@
       <c r="N14" s="12">
         <v>1</v>
       </c>
-      <c r="O14" s="20"/>
+      <c r="O14" s="19"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
-      <c r="R14" s="20"/>
+      <c r="R14" s="19"/>
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
-      <c r="U14" s="20"/>
+      <c r="U14" s="19"/>
       <c r="V14" s="12">
         <v>1.2</v>
       </c>
@@ -10984,13 +10983,13 @@
       <c r="N15" s="12">
         <v>1</v>
       </c>
-      <c r="O15" s="20"/>
+      <c r="O15" s="19"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
-      <c r="R15" s="20"/>
+      <c r="R15" s="19"/>
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="20"/>
+      <c r="U15" s="19"/>
       <c r="V15" s="12">
         <v>1.3</v>
       </c>
@@ -11020,7 +11019,7 @@
       <c r="G16" s="11">
         <v>5000</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="12">
         <v>1.25</v>
       </c>
@@ -11037,13 +11036,13 @@
       <c r="N16" s="12">
         <v>1</v>
       </c>
-      <c r="O16" s="20"/>
+      <c r="O16" s="19"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
-      <c r="R16" s="20"/>
+      <c r="R16" s="19"/>
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="20"/>
+      <c r="U16" s="19"/>
       <c r="V16" s="12">
         <v>1.25</v>
       </c>
@@ -11090,7 +11089,7 @@
       <c r="N17" s="12">
         <v>1</v>
       </c>
-      <c r="O17" s="20">
+      <c r="O17" s="19">
         <v>0.5</v>
       </c>
       <c r="P17" s="12">
@@ -11099,12 +11098,12 @@
       <c r="Q17" s="12">
         <v>1</v>
       </c>
-      <c r="R17" s="20">
+      <c r="R17" s="19">
         <v>0.99</v>
       </c>
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
-      <c r="U17" s="20"/>
+      <c r="U17" s="19"/>
       <c r="V17" s="12">
         <v>1.3</v>
       </c>
@@ -11134,7 +11133,7 @@
       <c r="G18" s="11">
         <v>10000</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="12">
         <v>1.22</v>
       </c>
@@ -11151,13 +11150,13 @@
       <c r="N18" s="12">
         <v>1</v>
       </c>
-      <c r="O18" s="20"/>
+      <c r="O18" s="19"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
-      <c r="R18" s="20"/>
+      <c r="R18" s="19"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
-      <c r="U18" s="20"/>
+      <c r="U18" s="19"/>
       <c r="V18" s="12">
         <v>1.1499999999999999</v>
       </c>
@@ -11204,15 +11203,15 @@
       <c r="N19" s="12">
         <v>1</v>
       </c>
-      <c r="O19" s="20">
+      <c r="O19" s="19">
         <v>0.99</v>
       </c>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
-      <c r="R19" s="20"/>
+      <c r="R19" s="19"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
-      <c r="U19" s="20"/>
+      <c r="U19" s="19"/>
       <c r="V19" s="12">
         <v>1.3</v>
       </c>
@@ -11242,7 +11241,7 @@
       <c r="G20" s="11">
         <v>20000</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="12">
         <v>1.3</v>
       </c>
@@ -11259,7 +11258,7 @@
       <c r="N20" s="12">
         <v>1</v>
       </c>
-      <c r="O20" s="20">
+      <c r="O20" s="19">
         <v>0.5</v>
       </c>
       <c r="P20" s="12">
@@ -11268,12 +11267,12 @@
       <c r="Q20" s="12">
         <v>1</v>
       </c>
-      <c r="R20" s="20">
+      <c r="R20" s="19">
         <v>0.99</v>
       </c>
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
-      <c r="U20" s="20"/>
+      <c r="U20" s="19"/>
       <c r="V20" s="12">
         <v>1.3</v>
       </c>
@@ -11320,13 +11319,13 @@
       <c r="N21" s="12">
         <v>1</v>
       </c>
-      <c r="O21" s="20"/>
+      <c r="O21" s="19"/>
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
-      <c r="R21" s="20"/>
+      <c r="R21" s="19"/>
       <c r="S21" s="12"/>
       <c r="T21" s="12"/>
-      <c r="U21" s="20"/>
+      <c r="U21" s="19"/>
       <c r="V21" s="12">
         <v>1.3</v>
       </c>
@@ -11356,7 +11355,7 @@
       <c r="G22" s="11">
         <v>25000</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="14"/>
       <c r="I22" s="12">
         <v>1.3</v>
       </c>
@@ -11373,13 +11372,13 @@
       <c r="N22" s="12">
         <v>1</v>
       </c>
-      <c r="O22" s="20"/>
+      <c r="O22" s="19"/>
       <c r="P22" s="12"/>
       <c r="Q22" s="12"/>
-      <c r="R22" s="20"/>
+      <c r="R22" s="19"/>
       <c r="S22" s="12"/>
       <c r="T22" s="12"/>
-      <c r="U22" s="20"/>
+      <c r="U22" s="19"/>
       <c r="V22" s="12">
         <v>1.43</v>
       </c>
@@ -11426,13 +11425,13 @@
       <c r="N23" s="12">
         <v>1</v>
       </c>
-      <c r="O23" s="20"/>
+      <c r="O23" s="19"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12"/>
-      <c r="R23" s="20"/>
+      <c r="R23" s="19"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12"/>
-      <c r="U23" s="20"/>
+      <c r="U23" s="19"/>
       <c r="V23" s="12">
         <v>1.43</v>
       </c>
@@ -11462,7 +11461,7 @@
       <c r="G24" s="11">
         <v>25000</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="12">
         <v>1.3</v>
       </c>
@@ -11479,15 +11478,15 @@
       <c r="N24" s="12">
         <v>1</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="19">
         <v>0.99</v>
       </c>
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
-      <c r="R24" s="20"/>
+      <c r="R24" s="19"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12"/>
-      <c r="U24" s="20"/>
+      <c r="U24" s="19"/>
       <c r="V24" s="12">
         <v>1.3</v>
       </c>
@@ -11534,7 +11533,7 @@
       <c r="N25" s="12">
         <v>1</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="19">
         <v>0.5</v>
       </c>
       <c r="P25" s="12">
@@ -11543,12 +11542,12 @@
       <c r="Q25" s="12">
         <v>1</v>
       </c>
-      <c r="R25" s="20">
+      <c r="R25" s="19">
         <v>0.99</v>
       </c>
       <c r="S25" s="12"/>
       <c r="T25" s="12"/>
-      <c r="U25" s="20"/>
+      <c r="U25" s="19"/>
       <c r="V25" s="12">
         <v>1.3</v>
       </c>
@@ -11578,7 +11577,7 @@
       <c r="G26" s="11">
         <v>100000</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="12">
         <v>1.3</v>
       </c>
@@ -11595,7 +11594,7 @@
       <c r="N26" s="12">
         <v>1</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="19">
         <v>0.5</v>
       </c>
       <c r="P26" s="12">
@@ -11604,12 +11603,12 @@
       <c r="Q26" s="12">
         <v>1</v>
       </c>
-      <c r="R26" s="20">
+      <c r="R26" s="19">
         <v>0.99</v>
       </c>
       <c r="S26" s="12"/>
       <c r="T26" s="12"/>
-      <c r="U26" s="20"/>
+      <c r="U26" s="19"/>
       <c r="V26" s="12">
         <v>1.3</v>
       </c>
@@ -11656,13 +11655,13 @@
       <c r="N27" s="12">
         <v>1</v>
       </c>
-      <c r="O27" s="20"/>
+      <c r="O27" s="19"/>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
-      <c r="R27" s="20"/>
+      <c r="R27" s="19"/>
       <c r="S27" s="12"/>
       <c r="T27" s="12"/>
-      <c r="U27" s="20"/>
+      <c r="U27" s="19"/>
       <c r="V27" s="12">
         <v>1.4</v>
       </c>
@@ -11692,7 +11691,7 @@
       <c r="G28" s="11">
         <v>120000</v>
       </c>
-      <c r="H28" s="15"/>
+      <c r="H28" s="14"/>
       <c r="I28" s="12">
         <v>1.2</v>
       </c>
@@ -11709,13 +11708,13 @@
       <c r="N28" s="12">
         <v>1</v>
       </c>
-      <c r="O28" s="20"/>
+      <c r="O28" s="19"/>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
-      <c r="R28" s="20"/>
+      <c r="R28" s="19"/>
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
-      <c r="U28" s="20"/>
+      <c r="U28" s="19"/>
       <c r="V28" s="12">
         <v>1.4</v>
       </c>
@@ -11762,13 +11761,13 @@
       <c r="N29" s="12">
         <v>1</v>
       </c>
-      <c r="O29" s="20"/>
+      <c r="O29" s="19"/>
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
-      <c r="R29" s="20"/>
+      <c r="R29" s="19"/>
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
-      <c r="U29" s="20"/>
+      <c r="U29" s="19"/>
       <c r="V29" s="12">
         <v>1.4</v>
       </c>
@@ -11798,7 +11797,7 @@
       <c r="G30" s="11">
         <v>120000</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="12">
         <v>1.2</v>
       </c>
@@ -11815,15 +11814,15 @@
       <c r="N30" s="12">
         <v>1</v>
       </c>
-      <c r="O30" s="20">
+      <c r="O30" s="19">
         <v>0.99</v>
       </c>
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
-      <c r="R30" s="20"/>
+      <c r="R30" s="19"/>
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
-      <c r="U30" s="20"/>
+      <c r="U30" s="19"/>
       <c r="V30" s="12">
         <v>1.3</v>
       </c>
@@ -11870,15 +11869,15 @@
       <c r="N31" s="12">
         <v>1</v>
       </c>
-      <c r="O31" s="20">
+      <c r="O31" s="19">
         <v>0.99</v>
       </c>
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
-      <c r="R31" s="20"/>
+      <c r="R31" s="19"/>
       <c r="S31" s="12"/>
       <c r="T31" s="12"/>
-      <c r="U31" s="20"/>
+      <c r="U31" s="19"/>
       <c r="V31" s="12">
         <v>1.3</v>
       </c>
@@ -11923,22 +11922,22 @@
       <c r="N32" s="13">
         <v>1.216</v>
       </c>
-      <c r="O32" s="20"/>
+      <c r="O32" s="19"/>
       <c r="P32" s="12">
         <v>3</v>
       </c>
       <c r="Q32" s="12">
         <v>1.2</v>
       </c>
-      <c r="R32" s="20"/>
+      <c r="R32" s="19"/>
       <c r="S32" s="12">
         <v>5</v>
       </c>
       <c r="T32" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="U32" s="20"/>
-      <c r="V32" s="14">
+      <c r="U32" s="19"/>
+      <c r="V32" s="12">
         <v>1.21</v>
       </c>
       <c r="W32" s="12">
@@ -11986,18 +11985,18 @@
       <c r="N33" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="O33" s="20"/>
+      <c r="O33" s="19"/>
       <c r="P33" s="12">
         <v>6</v>
       </c>
       <c r="Q33" s="12">
         <v>1.1399999999999999</v>
       </c>
-      <c r="R33" s="20"/>
+      <c r="R33" s="19"/>
       <c r="S33" s="12"/>
       <c r="T33" s="12"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="14">
+      <c r="U33" s="19"/>
+      <c r="V33" s="12">
         <v>1.21</v>
       </c>
       <c r="W33" s="12">
@@ -12047,7 +12046,7 @@
       <c r="N34" s="12">
         <v>1</v>
       </c>
-      <c r="O34" s="20">
+      <c r="O34" s="19">
         <v>0.25</v>
       </c>
       <c r="P34" s="12">
@@ -12056,13 +12055,13 @@
       <c r="Q34" s="12">
         <v>1</v>
       </c>
-      <c r="R34" s="20">
+      <c r="R34" s="19">
         <v>0.99</v>
       </c>
       <c r="S34" s="12"/>
       <c r="T34" s="12"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="14">
+      <c r="U34" s="19"/>
+      <c r="V34" s="12">
         <v>1.25</v>
       </c>
       <c r="W34" s="12">
@@ -12112,18 +12111,18 @@
       <c r="N35" s="12">
         <v>1.1399999999999999</v>
       </c>
-      <c r="O35" s="20"/>
+      <c r="O35" s="19"/>
       <c r="P35" s="12">
         <v>1</v>
       </c>
       <c r="Q35" s="12">
         <v>1</v>
       </c>
-      <c r="R35" s="20"/>
+      <c r="R35" s="19"/>
       <c r="S35" s="12"/>
       <c r="T35" s="12"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="14">
+      <c r="U35" s="19"/>
+      <c r="V35" s="12">
         <v>1.8</v>
       </c>
       <c r="W35" s="12">
@@ -12173,18 +12172,18 @@
       <c r="N36" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O36" s="20"/>
+      <c r="O36" s="19"/>
       <c r="P36" s="12">
         <v>1</v>
       </c>
       <c r="Q36" s="12">
         <v>1</v>
       </c>
-      <c r="R36" s="20"/>
+      <c r="R36" s="19"/>
       <c r="S36" s="12"/>
       <c r="T36" s="12"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="14">
+      <c r="U36" s="19"/>
+      <c r="V36" s="12">
         <v>1.9</v>
       </c>
       <c r="W36" s="12">
@@ -12230,17 +12229,17 @@
       <c r="N37" s="12">
         <v>1</v>
       </c>
-      <c r="O37" s="20"/>
+      <c r="O37" s="19"/>
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
-      <c r="R37" s="20"/>
+      <c r="R37" s="19"/>
       <c r="S37" s="12"/>
       <c r="T37" s="12"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="14">
+      <c r="U37" s="19"/>
+      <c r="V37" s="12">
         <v>1.31</v>
       </c>
-      <c r="W37" s="14">
+      <c r="W37" s="12">
         <v>2000</v>
       </c>
     </row>
@@ -12283,23 +12282,23 @@
       <c r="N38" s="12">
         <v>1</v>
       </c>
-      <c r="O38" s="20"/>
+      <c r="O38" s="19"/>
       <c r="P38" s="12">
         <v>0.5</v>
       </c>
       <c r="Q38" s="12">
         <v>1</v>
       </c>
-      <c r="R38" s="20">
+      <c r="R38" s="19">
         <v>0.4</v>
       </c>
       <c r="S38" s="12"/>
       <c r="T38" s="12"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="14">
+      <c r="U38" s="19"/>
+      <c r="V38" s="12">
         <v>1.25</v>
       </c>
-      <c r="W38" s="14">
+      <c r="W38" s="12">
         <v>16000</v>
       </c>
     </row>
@@ -12346,7 +12345,7 @@
       <c r="N39" s="12">
         <v>1</v>
       </c>
-      <c r="O39" s="20">
+      <c r="O39" s="19">
         <v>0.5</v>
       </c>
       <c r="P39" s="12">
@@ -12355,16 +12354,16 @@
       <c r="Q39" s="12">
         <v>1</v>
       </c>
-      <c r="R39" s="20">
+      <c r="R39" s="19">
         <v>0.5</v>
       </c>
       <c r="S39" s="12"/>
       <c r="T39" s="12"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="14">
+      <c r="U39" s="19"/>
+      <c r="V39" s="12">
         <v>1.7</v>
       </c>
-      <c r="W39" s="14">
+      <c r="W39" s="12">
         <v>40000</v>
       </c>
     </row>
@@ -12411,17 +12410,17 @@
       <c r="N40" s="12">
         <v>1</v>
       </c>
-      <c r="O40" s="20"/>
+      <c r="O40" s="19"/>
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
-      <c r="R40" s="20"/>
+      <c r="R40" s="19"/>
       <c r="S40" s="12"/>
       <c r="T40" s="12"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="14">
+      <c r="U40" s="19"/>
+      <c r="V40" s="12">
         <v>1.24</v>
       </c>
-      <c r="W40" s="14">
+      <c r="W40" s="12">
         <v>40000</v>
       </c>
     </row>
@@ -12468,17 +12467,17 @@
       <c r="N41" s="12">
         <v>1</v>
       </c>
-      <c r="O41" s="20"/>
+      <c r="O41" s="19"/>
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
-      <c r="R41" s="20"/>
+      <c r="R41" s="19"/>
       <c r="S41" s="12"/>
       <c r="T41" s="12"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="14">
+      <c r="U41" s="19"/>
+      <c r="V41" s="12">
         <v>1.25</v>
       </c>
-      <c r="W41" s="14">
+      <c r="W41" s="12">
         <v>52000</v>
       </c>
     </row>
@@ -12525,19 +12524,19 @@
       <c r="N42" s="12">
         <v>1</v>
       </c>
-      <c r="O42" s="20">
+      <c r="O42" s="19">
         <v>0.5</v>
       </c>
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
-      <c r="R42" s="20"/>
+      <c r="R42" s="19"/>
       <c r="S42" s="12"/>
       <c r="T42" s="12"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="14">
+      <c r="U42" s="19"/>
+      <c r="V42" s="12">
         <v>2</v>
       </c>
-      <c r="W42" s="14">
+      <c r="W42" s="12">
         <v>120000</v>
       </c>
     </row>
@@ -12584,19 +12583,19 @@
       <c r="N43" s="12">
         <v>1</v>
       </c>
-      <c r="O43" s="20">
+      <c r="O43" s="19">
         <v>0.4</v>
       </c>
       <c r="P43" s="12"/>
       <c r="Q43" s="12"/>
-      <c r="R43" s="20"/>
+      <c r="R43" s="19"/>
       <c r="S43" s="12"/>
       <c r="T43" s="12"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="W43" s="14">
+      <c r="U43" s="19"/>
+      <c r="V43" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="W43" s="12">
         <v>120000</v>
       </c>
     </row>
@@ -12639,13 +12638,13 @@
       <c r="N44" s="12">
         <v>1</v>
       </c>
-      <c r="O44" s="20"/>
+      <c r="O44" s="19"/>
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
-      <c r="R44" s="20"/>
+      <c r="R44" s="19"/>
       <c r="S44" s="12"/>
       <c r="T44" s="12"/>
-      <c r="U44" s="20"/>
+      <c r="U44" s="19"/>
       <c r="V44" s="12">
         <v>1.3</v>
       </c>
@@ -12692,13 +12691,13 @@
       <c r="N45" s="12">
         <v>1</v>
       </c>
-      <c r="O45" s="20"/>
+      <c r="O45" s="19"/>
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
-      <c r="R45" s="20"/>
+      <c r="R45" s="19"/>
       <c r="S45" s="12"/>
       <c r="T45" s="12"/>
-      <c r="U45" s="20"/>
+      <c r="U45" s="19"/>
       <c r="V45" s="12">
         <v>1.3</v>
       </c>
@@ -12745,13 +12744,13 @@
       <c r="N46" s="12">
         <v>1</v>
       </c>
-      <c r="O46" s="20"/>
+      <c r="O46" s="19"/>
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
-      <c r="R46" s="20"/>
+      <c r="R46" s="19"/>
       <c r="S46" s="12"/>
       <c r="T46" s="12"/>
-      <c r="U46" s="20"/>
+      <c r="U46" s="19"/>
       <c r="V46" s="12">
         <v>1.3</v>
       </c>
@@ -12798,13 +12797,13 @@
       <c r="N47" s="12">
         <v>1</v>
       </c>
-      <c r="O47" s="20"/>
+      <c r="O47" s="19"/>
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
-      <c r="R47" s="20"/>
+      <c r="R47" s="19"/>
       <c r="S47" s="12"/>
       <c r="T47" s="12"/>
-      <c r="U47" s="20"/>
+      <c r="U47" s="19"/>
       <c r="V47" s="12">
         <v>1.4</v>
       </c>
@@ -12851,13 +12850,13 @@
       <c r="N48" s="12">
         <v>1</v>
       </c>
-      <c r="O48" s="20"/>
+      <c r="O48" s="19"/>
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
-      <c r="R48" s="20"/>
+      <c r="R48" s="19"/>
       <c r="S48" s="12"/>
       <c r="T48" s="12"/>
-      <c r="U48" s="20"/>
+      <c r="U48" s="19"/>
       <c r="V48" s="12">
         <v>1.3</v>
       </c>
@@ -12904,13 +12903,13 @@
       <c r="N49" s="12">
         <v>1</v>
       </c>
-      <c r="O49" s="20"/>
+      <c r="O49" s="19"/>
       <c r="P49" s="12"/>
       <c r="Q49" s="12"/>
-      <c r="R49" s="20"/>
+      <c r="R49" s="19"/>
       <c r="S49" s="12"/>
       <c r="T49" s="12"/>
-      <c r="U49" s="20"/>
+      <c r="U49" s="19"/>
       <c r="V49" s="12">
         <v>1.4</v>
       </c>
@@ -12957,13 +12956,13 @@
       <c r="N50" s="12">
         <v>1</v>
       </c>
-      <c r="O50" s="20"/>
+      <c r="O50" s="19"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
-      <c r="R50" s="20"/>
+      <c r="R50" s="19"/>
       <c r="S50" s="12"/>
       <c r="T50" s="12"/>
-      <c r="U50" s="20"/>
+      <c r="U50" s="19"/>
       <c r="V50" s="12">
         <v>1.3</v>
       </c>
@@ -13010,13 +13009,13 @@
       <c r="N51" s="12">
         <v>1</v>
       </c>
-      <c r="O51" s="20"/>
+      <c r="O51" s="19"/>
       <c r="P51" s="12"/>
       <c r="Q51" s="12"/>
-      <c r="R51" s="20"/>
+      <c r="R51" s="19"/>
       <c r="S51" s="12"/>
       <c r="T51" s="12"/>
-      <c r="U51" s="20"/>
+      <c r="U51" s="19"/>
       <c r="V51" s="12">
         <v>1.43</v>
       </c>
@@ -13063,7 +13062,7 @@
       <c r="N52" s="12">
         <v>1</v>
       </c>
-      <c r="O52" s="20">
+      <c r="O52" s="19">
         <v>0.5</v>
       </c>
       <c r="P52" s="12">
@@ -13072,12 +13071,12 @@
       <c r="Q52" s="12">
         <v>1</v>
       </c>
-      <c r="R52" s="20">
+      <c r="R52" s="19">
         <v>0.99</v>
       </c>
       <c r="S52" s="12"/>
       <c r="T52" s="12"/>
-      <c r="U52" s="20"/>
+      <c r="U52" s="19"/>
       <c r="V52" s="12">
         <v>1.3</v>
       </c>
@@ -13124,13 +13123,13 @@
       <c r="N53" s="12">
         <v>1</v>
       </c>
-      <c r="O53" s="20"/>
+      <c r="O53" s="19"/>
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
-      <c r="R53" s="20"/>
+      <c r="R53" s="19"/>
       <c r="S53" s="12"/>
       <c r="T53" s="12"/>
-      <c r="U53" s="20"/>
+      <c r="U53" s="19"/>
       <c r="V53" s="12">
         <v>1.3</v>
       </c>
@@ -13177,13 +13176,13 @@
       <c r="N54" s="12">
         <v>1</v>
       </c>
-      <c r="O54" s="20"/>
+      <c r="O54" s="19"/>
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
-      <c r="R54" s="20"/>
+      <c r="R54" s="19"/>
       <c r="S54" s="12"/>
       <c r="T54" s="12"/>
-      <c r="U54" s="20"/>
+      <c r="U54" s="19"/>
       <c r="V54" s="12">
         <v>1.3</v>
       </c>
@@ -13230,13 +13229,13 @@
       <c r="N55" s="12">
         <v>1</v>
       </c>
-      <c r="O55" s="20"/>
+      <c r="O55" s="19"/>
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
-      <c r="R55" s="20"/>
+      <c r="R55" s="19"/>
       <c r="S55" s="12"/>
       <c r="T55" s="12"/>
-      <c r="U55" s="20"/>
+      <c r="U55" s="19"/>
       <c r="V55" s="12">
         <v>1.3</v>
       </c>
@@ -13283,7 +13282,7 @@
       <c r="N56" s="12">
         <v>1</v>
       </c>
-      <c r="O56" s="20">
+      <c r="O56" s="19">
         <v>0.5</v>
       </c>
       <c r="P56" s="12">
@@ -13292,10 +13291,10 @@
       <c r="Q56" s="12">
         <v>1</v>
       </c>
-      <c r="R56" s="20"/>
+      <c r="R56" s="19"/>
       <c r="S56" s="12"/>
       <c r="T56" s="12"/>
-      <c r="U56" s="20"/>
+      <c r="U56" s="19"/>
       <c r="V56" s="12">
         <v>1.3</v>
       </c>
@@ -13342,7 +13341,7 @@
       <c r="N57" s="12">
         <v>1</v>
       </c>
-      <c r="O57" s="20">
+      <c r="O57" s="19">
         <v>0.5</v>
       </c>
       <c r="P57" s="12">
@@ -13351,12 +13350,12 @@
       <c r="Q57" s="12">
         <v>1</v>
       </c>
-      <c r="R57" s="20">
+      <c r="R57" s="19">
         <v>0.99</v>
       </c>
       <c r="S57" s="12"/>
       <c r="T57" s="12"/>
-      <c r="U57" s="20"/>
+      <c r="U57" s="19"/>
       <c r="V57" s="12">
         <v>1.3</v>
       </c>
@@ -13403,7 +13402,7 @@
       <c r="N58" s="12">
         <v>1</v>
       </c>
-      <c r="O58" s="20">
+      <c r="O58" s="19">
         <v>0.5</v>
       </c>
       <c r="P58" s="12">
@@ -13412,12 +13411,12 @@
       <c r="Q58" s="12">
         <v>1</v>
       </c>
-      <c r="R58" s="20">
+      <c r="R58" s="19">
         <v>0.99</v>
       </c>
       <c r="S58" s="12"/>
       <c r="T58" s="12"/>
-      <c r="U58" s="20"/>
+      <c r="U58" s="19"/>
       <c r="V58" s="12">
         <v>1.3</v>
       </c>
@@ -13464,13 +13463,13 @@
       <c r="N59" s="12">
         <v>1</v>
       </c>
-      <c r="O59" s="20"/>
+      <c r="O59" s="19"/>
       <c r="P59" s="12"/>
       <c r="Q59" s="12"/>
-      <c r="R59" s="20"/>
+      <c r="R59" s="19"/>
       <c r="S59" s="12"/>
       <c r="T59" s="12"/>
-      <c r="U59" s="20"/>
+      <c r="U59" s="19"/>
       <c r="V59" s="12">
         <v>1.4</v>
       </c>
@@ -13517,13 +13516,13 @@
       <c r="N60" s="12">
         <v>1</v>
       </c>
-      <c r="O60" s="20"/>
+      <c r="O60" s="19"/>
       <c r="P60" s="12"/>
       <c r="Q60" s="12"/>
-      <c r="R60" s="20"/>
+      <c r="R60" s="19"/>
       <c r="S60" s="12"/>
       <c r="T60" s="12"/>
-      <c r="U60" s="20"/>
+      <c r="U60" s="19"/>
       <c r="V60" s="12">
         <v>1.5</v>
       </c>
@@ -13570,7 +13569,7 @@
       <c r="N61" s="12">
         <v>1</v>
       </c>
-      <c r="O61" s="20">
+      <c r="O61" s="19">
         <v>0.5</v>
       </c>
       <c r="P61" s="12">
@@ -13579,12 +13578,12 @@
       <c r="Q61" s="12">
         <v>1</v>
       </c>
-      <c r="R61" s="20">
+      <c r="R61" s="19">
         <v>0.99</v>
       </c>
       <c r="S61" s="12"/>
       <c r="T61" s="12"/>
-      <c r="U61" s="20"/>
+      <c r="U61" s="19"/>
       <c r="V61" s="12">
         <v>1.3</v>
       </c>
@@ -13629,22 +13628,22 @@
       <c r="N62" s="13">
         <v>1.2050000000000001</v>
       </c>
-      <c r="O62" s="20"/>
+      <c r="O62" s="19"/>
       <c r="P62" s="12">
         <v>6</v>
       </c>
       <c r="Q62" s="13">
         <v>1.2050000000000001</v>
       </c>
-      <c r="R62" s="20"/>
+      <c r="R62" s="19"/>
       <c r="S62" s="12">
         <v>22</v>
       </c>
       <c r="T62" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="U62" s="20"/>
-      <c r="V62" s="14">
+      <c r="U62" s="19"/>
+      <c r="V62" s="12">
         <v>1.22</v>
       </c>
       <c r="W62" s="12">
@@ -13692,18 +13691,18 @@
       <c r="N63" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="O63" s="20"/>
+      <c r="O63" s="19"/>
       <c r="P63" s="12">
         <v>23</v>
       </c>
       <c r="Q63" s="12">
         <v>1.1200000000000001</v>
       </c>
-      <c r="R63" s="20"/>
+      <c r="R63" s="19"/>
       <c r="S63" s="12"/>
       <c r="T63" s="12"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="14">
+      <c r="U63" s="19"/>
+      <c r="V63" s="12">
         <v>1.2</v>
       </c>
       <c r="W63" s="12">
@@ -13753,7 +13752,7 @@
       <c r="N64" s="12">
         <v>1</v>
       </c>
-      <c r="O64" s="20">
+      <c r="O64" s="19">
         <v>0.25</v>
       </c>
       <c r="P64" s="12">
@@ -13762,16 +13761,16 @@
       <c r="Q64" s="12">
         <v>1</v>
       </c>
-      <c r="R64" s="20">
+      <c r="R64" s="19">
         <v>0.99</v>
       </c>
       <c r="S64" s="12"/>
       <c r="T64" s="12"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="14">
+      <c r="U64" s="19"/>
+      <c r="V64" s="12">
         <v>1.25</v>
       </c>
-      <c r="W64" s="14">
+      <c r="W64" s="12">
         <v>16000</v>
       </c>
     </row>
@@ -13818,17 +13817,17 @@
       <c r="N65" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O65" s="20"/>
+      <c r="O65" s="19"/>
       <c r="P65" s="12">
         <v>1</v>
       </c>
       <c r="Q65" s="12">
         <v>1</v>
       </c>
-      <c r="R65" s="20"/>
+      <c r="R65" s="19"/>
       <c r="S65" s="12"/>
       <c r="T65" s="12"/>
-      <c r="U65" s="20"/>
+      <c r="U65" s="19"/>
       <c r="V65" s="12">
         <v>1.82</v>
       </c>
@@ -13879,17 +13878,17 @@
       <c r="N66" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O66" s="20"/>
+      <c r="O66" s="19"/>
       <c r="P66" s="12">
         <v>1</v>
       </c>
       <c r="Q66" s="12">
         <v>1</v>
       </c>
-      <c r="R66" s="20"/>
+      <c r="R66" s="19"/>
       <c r="S66" s="12"/>
       <c r="T66" s="12"/>
-      <c r="U66" s="20"/>
+      <c r="U66" s="19"/>
       <c r="V66" s="12">
         <v>1.92</v>
       </c>
@@ -13936,15 +13935,15 @@
       <c r="N67" s="12">
         <v>1</v>
       </c>
-      <c r="O67" s="20">
+      <c r="O67" s="19">
         <v>0.99</v>
       </c>
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
-      <c r="R67" s="20"/>
+      <c r="R67" s="19"/>
       <c r="S67" s="12"/>
       <c r="T67" s="12"/>
-      <c r="U67" s="20"/>
+      <c r="U67" s="19"/>
       <c r="V67" s="12">
         <v>1.3</v>
       </c>
@@ -13991,17 +13990,17 @@
       <c r="N68" s="12">
         <v>1</v>
       </c>
-      <c r="O68" s="20"/>
+      <c r="O68" s="19"/>
       <c r="P68" s="12">
         <v>0.3</v>
       </c>
       <c r="Q68" s="12">
         <v>1</v>
       </c>
-      <c r="R68" s="20"/>
+      <c r="R68" s="19"/>
       <c r="S68" s="12"/>
       <c r="T68" s="12"/>
-      <c r="U68" s="20"/>
+      <c r="U68" s="19"/>
       <c r="V68" s="12">
         <v>1.4</v>
       </c>
@@ -14052,17 +14051,17 @@
       <c r="N69" s="12">
         <v>1</v>
       </c>
-      <c r="O69" s="20"/>
+      <c r="O69" s="19"/>
       <c r="P69" s="12">
         <v>2</v>
       </c>
       <c r="Q69" s="12">
         <v>1</v>
       </c>
-      <c r="R69" s="20"/>
+      <c r="R69" s="19"/>
       <c r="S69" s="12"/>
       <c r="T69" s="12"/>
-      <c r="U69" s="20"/>
+      <c r="U69" s="19"/>
       <c r="V69" s="12">
         <v>1.17</v>
       </c>
@@ -14113,17 +14112,17 @@
       <c r="N70" s="12">
         <v>1</v>
       </c>
-      <c r="O70" s="20"/>
+      <c r="O70" s="19"/>
       <c r="P70" s="12">
         <v>6</v>
       </c>
       <c r="Q70" s="12">
         <v>1</v>
       </c>
-      <c r="R70" s="20"/>
+      <c r="R70" s="19"/>
       <c r="S70" s="12"/>
       <c r="T70" s="12"/>
-      <c r="U70" s="20"/>
+      <c r="U70" s="19"/>
       <c r="V70" s="12">
         <v>1.3</v>
       </c>
@@ -14174,13 +14173,13 @@
       <c r="N71" s="12">
         <v>1</v>
       </c>
-      <c r="O71" s="20"/>
+      <c r="O71" s="19"/>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
-      <c r="R71" s="20"/>
+      <c r="R71" s="19"/>
       <c r="S71" s="12"/>
       <c r="T71" s="12"/>
-      <c r="U71" s="20"/>
+      <c r="U71" s="19"/>
       <c r="V71" s="12">
         <v>1.25</v>
       </c>
@@ -14231,15 +14230,15 @@
       <c r="N72" s="12">
         <v>1</v>
       </c>
-      <c r="O72" s="20">
+      <c r="O72" s="19">
         <v>1</v>
       </c>
       <c r="P72" s="12"/>
       <c r="Q72" s="12"/>
-      <c r="R72" s="20"/>
+      <c r="R72" s="19"/>
       <c r="S72" s="12"/>
       <c r="T72" s="12"/>
-      <c r="U72" s="20"/>
+      <c r="U72" s="19"/>
       <c r="V72" s="12">
         <v>1.3</v>
       </c>
@@ -14290,15 +14289,15 @@
       <c r="N73" s="12">
         <v>1</v>
       </c>
-      <c r="O73" s="20">
+      <c r="O73" s="19">
         <v>0.5</v>
       </c>
       <c r="P73" s="12"/>
       <c r="Q73" s="12"/>
-      <c r="R73" s="20"/>
+      <c r="R73" s="19"/>
       <c r="S73" s="12"/>
       <c r="T73" s="12"/>
-      <c r="U73" s="20"/>
+      <c r="U73" s="19"/>
       <c r="V73" s="12">
         <v>1.4</v>
       </c>
@@ -14345,13 +14344,13 @@
       <c r="N74" s="12">
         <v>1</v>
       </c>
-      <c r="O74" s="20"/>
+      <c r="O74" s="19"/>
       <c r="P74" s="12"/>
       <c r="Q74" s="12"/>
-      <c r="R74" s="20"/>
+      <c r="R74" s="19"/>
       <c r="S74" s="12"/>
       <c r="T74" s="12"/>
-      <c r="U74" s="20"/>
+      <c r="U74" s="19"/>
       <c r="V74" s="12">
         <v>1.3</v>
       </c>
@@ -14392,19 +14391,19 @@
         <v>1.22</v>
       </c>
       <c r="L75" s="12"/>
-      <c r="M75" s="14">
+      <c r="M75" s="12">
         <v>0.1</v>
       </c>
       <c r="N75" s="12">
         <v>1</v>
       </c>
-      <c r="O75" s="20"/>
+      <c r="O75" s="19"/>
       <c r="P75" s="12"/>
       <c r="Q75" s="12"/>
-      <c r="R75" s="20"/>
+      <c r="R75" s="19"/>
       <c r="S75" s="12"/>
       <c r="T75" s="12"/>
-      <c r="U75" s="20"/>
+      <c r="U75" s="19"/>
       <c r="V75" s="12">
         <v>1.25</v>
       </c>
@@ -14451,15 +14450,15 @@
       <c r="N76" s="12">
         <v>1</v>
       </c>
-      <c r="O76" s="20">
+      <c r="O76" s="19">
         <v>0.3</v>
       </c>
       <c r="P76" s="12"/>
       <c r="Q76" s="12"/>
-      <c r="R76" s="20"/>
+      <c r="R76" s="19"/>
       <c r="S76" s="12"/>
       <c r="T76" s="12"/>
-      <c r="U76" s="20"/>
+      <c r="U76" s="19"/>
       <c r="V76" s="12">
         <v>1.4</v>
       </c>
@@ -14506,7 +14505,7 @@
       <c r="N77" s="12">
         <v>1</v>
       </c>
-      <c r="O77" s="20">
+      <c r="O77" s="19">
         <v>0.5</v>
       </c>
       <c r="P77" s="12">
@@ -14515,12 +14514,12 @@
       <c r="Q77" s="12">
         <v>1</v>
       </c>
-      <c r="R77" s="20">
+      <c r="R77" s="19">
         <v>0.99</v>
       </c>
       <c r="S77" s="12"/>
       <c r="T77" s="12"/>
-      <c r="U77" s="20"/>
+      <c r="U77" s="19"/>
       <c r="V77" s="12">
         <v>1.3</v>
       </c>
@@ -14567,13 +14566,13 @@
       <c r="N78" s="12">
         <v>1</v>
       </c>
-      <c r="O78" s="20"/>
+      <c r="O78" s="19"/>
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
-      <c r="R78" s="20"/>
+      <c r="R78" s="19"/>
       <c r="S78" s="12"/>
       <c r="T78" s="12"/>
-      <c r="U78" s="20"/>
+      <c r="U78" s="19"/>
       <c r="V78" s="12">
         <v>1.45</v>
       </c>
@@ -14620,13 +14619,13 @@
       <c r="N79" s="12">
         <v>1</v>
       </c>
-      <c r="O79" s="20"/>
+      <c r="O79" s="19"/>
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
-      <c r="R79" s="20"/>
+      <c r="R79" s="19"/>
       <c r="S79" s="12"/>
       <c r="T79" s="12"/>
-      <c r="U79" s="20"/>
+      <c r="U79" s="19"/>
       <c r="V79" s="12">
         <v>1.3</v>
       </c>
@@ -14673,7 +14672,7 @@
       <c r="N80" s="12">
         <v>1</v>
       </c>
-      <c r="O80" s="20">
+      <c r="O80" s="19">
         <v>0.5</v>
       </c>
       <c r="P80" s="12">
@@ -14682,12 +14681,12 @@
       <c r="Q80" s="12">
         <v>1</v>
       </c>
-      <c r="R80" s="20">
+      <c r="R80" s="19">
         <v>0.99</v>
       </c>
       <c r="S80" s="12"/>
       <c r="T80" s="12"/>
-      <c r="U80" s="20"/>
+      <c r="U80" s="19"/>
       <c r="V80" s="12">
         <v>1.3</v>
       </c>
@@ -14734,13 +14733,13 @@
       <c r="N81" s="12">
         <v>1</v>
       </c>
-      <c r="O81" s="20"/>
+      <c r="O81" s="19"/>
       <c r="P81" s="12"/>
       <c r="Q81" s="12"/>
-      <c r="R81" s="20"/>
+      <c r="R81" s="19"/>
       <c r="S81" s="12"/>
       <c r="T81" s="12"/>
-      <c r="U81" s="20"/>
+      <c r="U81" s="19"/>
       <c r="V81" s="12">
         <v>1.43</v>
       </c>
@@ -14787,13 +14786,13 @@
       <c r="N82" s="12">
         <v>1</v>
       </c>
-      <c r="O82" s="20"/>
+      <c r="O82" s="19"/>
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
-      <c r="R82" s="20"/>
+      <c r="R82" s="19"/>
       <c r="S82" s="12"/>
       <c r="T82" s="12"/>
-      <c r="U82" s="20"/>
+      <c r="U82" s="19"/>
       <c r="V82" s="12">
         <v>1.43</v>
       </c>
@@ -14840,15 +14839,15 @@
       <c r="N83" s="12">
         <v>1</v>
       </c>
-      <c r="O83" s="20">
+      <c r="O83" s="19">
         <v>0.9</v>
       </c>
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
-      <c r="R83" s="20"/>
+      <c r="R83" s="19"/>
       <c r="S83" s="12"/>
       <c r="T83" s="12"/>
-      <c r="U83" s="20"/>
+      <c r="U83" s="19"/>
       <c r="V83" s="12">
         <v>1.25</v>
       </c>
@@ -14895,7 +14894,7 @@
       <c r="N84" s="12">
         <v>1</v>
       </c>
-      <c r="O84" s="20">
+      <c r="O84" s="19">
         <v>0.5</v>
       </c>
       <c r="P84" s="12">
@@ -14904,12 +14903,12 @@
       <c r="Q84" s="12">
         <v>1</v>
       </c>
-      <c r="R84" s="20">
+      <c r="R84" s="19">
         <v>0.99</v>
       </c>
       <c r="S84" s="12"/>
       <c r="T84" s="12"/>
-      <c r="U84" s="20"/>
+      <c r="U84" s="19"/>
       <c r="V84" s="12">
         <v>1.3</v>
       </c>
@@ -14956,13 +14955,13 @@
       <c r="N85" s="12">
         <v>1</v>
       </c>
-      <c r="O85" s="20"/>
+      <c r="O85" s="19"/>
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
-      <c r="R85" s="20"/>
+      <c r="R85" s="19"/>
       <c r="S85" s="12"/>
       <c r="T85" s="12"/>
-      <c r="U85" s="20"/>
+      <c r="U85" s="19"/>
       <c r="V85" s="12">
         <v>1.4</v>
       </c>
@@ -15009,13 +15008,13 @@
       <c r="N86" s="12">
         <v>1</v>
       </c>
-      <c r="O86" s="20"/>
+      <c r="O86" s="19"/>
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
-      <c r="R86" s="20"/>
+      <c r="R86" s="19"/>
       <c r="S86" s="12"/>
       <c r="T86" s="12"/>
-      <c r="U86" s="20"/>
+      <c r="U86" s="19"/>
       <c r="V86" s="12">
         <v>1.3</v>
       </c>
@@ -15062,13 +15061,13 @@
       <c r="N87" s="12">
         <v>1</v>
       </c>
-      <c r="O87" s="20"/>
+      <c r="O87" s="19"/>
       <c r="P87" s="12"/>
       <c r="Q87" s="12"/>
-      <c r="R87" s="20"/>
+      <c r="R87" s="19"/>
       <c r="S87" s="12"/>
       <c r="T87" s="12"/>
-      <c r="U87" s="20"/>
+      <c r="U87" s="19"/>
       <c r="V87" s="12">
         <v>1.4</v>
       </c>
@@ -15115,13 +15114,13 @@
       <c r="N88" s="12">
         <v>1</v>
       </c>
-      <c r="O88" s="20"/>
+      <c r="O88" s="19"/>
       <c r="P88" s="12"/>
       <c r="Q88" s="12"/>
-      <c r="R88" s="20"/>
+      <c r="R88" s="19"/>
       <c r="S88" s="12"/>
       <c r="T88" s="12"/>
-      <c r="U88" s="20"/>
+      <c r="U88" s="19"/>
       <c r="V88" s="12">
         <v>1.4</v>
       </c>
@@ -15168,13 +15167,13 @@
       <c r="N89" s="12">
         <v>1</v>
       </c>
-      <c r="O89" s="20"/>
+      <c r="O89" s="19"/>
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
-      <c r="R89" s="20"/>
+      <c r="R89" s="19"/>
       <c r="S89" s="12"/>
       <c r="T89" s="12"/>
-      <c r="U89" s="20"/>
+      <c r="U89" s="19"/>
       <c r="V89" s="12">
         <v>1.4</v>
       </c>
@@ -15221,13 +15220,13 @@
       <c r="N90" s="12">
         <v>1</v>
       </c>
-      <c r="O90" s="20"/>
+      <c r="O90" s="19"/>
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
-      <c r="R90" s="20"/>
+      <c r="R90" s="19"/>
       <c r="S90" s="12"/>
       <c r="T90" s="12"/>
-      <c r="U90" s="20"/>
+      <c r="U90" s="19"/>
       <c r="V90" s="12">
         <v>1.5</v>
       </c>
@@ -15274,7 +15273,7 @@
       <c r="N91" s="12">
         <v>1</v>
       </c>
-      <c r="O91" s="20">
+      <c r="O91" s="19">
         <v>0.5</v>
       </c>
       <c r="P91" s="12">
@@ -15283,12 +15282,12 @@
       <c r="Q91" s="12">
         <v>1</v>
       </c>
-      <c r="R91" s="20">
+      <c r="R91" s="19">
         <v>0.99</v>
       </c>
       <c r="S91" s="12"/>
       <c r="T91" s="12"/>
-      <c r="U91" s="20"/>
+      <c r="U91" s="19"/>
       <c r="V91" s="12">
         <v>1.3</v>
       </c>
@@ -15333,22 +15332,22 @@
       <c r="N92" s="12">
         <v>1.21</v>
       </c>
-      <c r="O92" s="20"/>
+      <c r="O92" s="19"/>
       <c r="P92" s="12">
         <v>4</v>
       </c>
-      <c r="Q92" s="14">
+      <c r="Q92" s="12">
         <v>1.2</v>
       </c>
-      <c r="R92" s="20"/>
+      <c r="R92" s="19"/>
       <c r="S92" s="12">
         <v>11</v>
       </c>
       <c r="T92" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="U92" s="20"/>
-      <c r="V92" s="14">
+      <c r="U92" s="19"/>
+      <c r="V92" s="12">
         <v>1.22</v>
       </c>
       <c r="W92" s="12">
@@ -15396,18 +15395,18 @@
       <c r="N93" s="12">
         <v>1.1499999999999999</v>
       </c>
-      <c r="O93" s="20"/>
+      <c r="O93" s="19"/>
       <c r="P93" s="12">
         <v>12</v>
       </c>
       <c r="Q93" s="12">
         <v>1.1399999999999999</v>
       </c>
-      <c r="R93" s="20"/>
+      <c r="R93" s="19"/>
       <c r="S93" s="12"/>
       <c r="T93" s="12"/>
-      <c r="U93" s="20"/>
-      <c r="V93" s="14">
+      <c r="U93" s="19"/>
+      <c r="V93" s="12">
         <v>1.22</v>
       </c>
       <c r="W93" s="12">
@@ -15457,7 +15456,7 @@
       <c r="N94" s="12">
         <v>1</v>
       </c>
-      <c r="O94" s="20">
+      <c r="O94" s="19">
         <v>0.25</v>
       </c>
       <c r="P94" s="12">
@@ -15466,12 +15465,12 @@
       <c r="Q94" s="12">
         <v>1</v>
       </c>
-      <c r="R94" s="20">
+      <c r="R94" s="19">
         <v>0.99</v>
       </c>
       <c r="S94" s="12"/>
       <c r="T94" s="12"/>
-      <c r="U94" s="20"/>
+      <c r="U94" s="19"/>
       <c r="V94" s="12">
         <v>1.25</v>
       </c>
@@ -15522,18 +15521,18 @@
       <c r="N95" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O95" s="20"/>
+      <c r="O95" s="19"/>
       <c r="P95" s="12">
         <v>1</v>
       </c>
       <c r="Q95" s="12">
         <v>1</v>
       </c>
-      <c r="R95" s="20"/>
+      <c r="R95" s="19"/>
       <c r="S95" s="12"/>
       <c r="T95" s="12"/>
-      <c r="U95" s="20"/>
-      <c r="V95" s="14">
+      <c r="U95" s="19"/>
+      <c r="V95" s="12">
         <v>1.9</v>
       </c>
       <c r="W95" s="12">
@@ -15583,17 +15582,17 @@
       <c r="N96" s="12">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O96" s="20"/>
+      <c r="O96" s="19"/>
       <c r="P96" s="12">
         <v>1</v>
       </c>
       <c r="Q96" s="12">
         <v>1</v>
       </c>
-      <c r="R96" s="20"/>
+      <c r="R96" s="19"/>
       <c r="S96" s="12"/>
       <c r="T96" s="12"/>
-      <c r="U96" s="20"/>
+      <c r="U96" s="19"/>
       <c r="V96" s="12">
         <v>2</v>
       </c>
@@ -15640,15 +15639,15 @@
       <c r="N97" s="12">
         <v>1</v>
       </c>
-      <c r="O97" s="20">
+      <c r="O97" s="19">
         <v>0.5</v>
       </c>
       <c r="P97" s="12"/>
       <c r="Q97" s="12"/>
-      <c r="R97" s="20"/>
+      <c r="R97" s="19"/>
       <c r="S97" s="12"/>
       <c r="T97" s="12"/>
-      <c r="U97" s="20"/>
+      <c r="U97" s="19"/>
       <c r="V97" s="12">
         <v>1.45</v>
       </c>
@@ -15695,13 +15694,13 @@
       <c r="N98" s="12">
         <v>1</v>
       </c>
-      <c r="O98" s="20"/>
+      <c r="O98" s="19"/>
       <c r="P98" s="12"/>
       <c r="Q98" s="12"/>
-      <c r="R98" s="20"/>
+      <c r="R98" s="19"/>
       <c r="S98" s="12"/>
       <c r="T98" s="12"/>
-      <c r="U98" s="20"/>
+      <c r="U98" s="19"/>
       <c r="V98" s="12">
         <v>1.2</v>
       </c>
@@ -15752,17 +15751,17 @@
       <c r="N99" s="12">
         <v>1</v>
       </c>
-      <c r="O99" s="20"/>
+      <c r="O99" s="19"/>
       <c r="P99" s="12">
         <v>6</v>
       </c>
       <c r="Q99" s="12">
         <v>1</v>
       </c>
-      <c r="R99" s="20"/>
+      <c r="R99" s="19"/>
       <c r="S99" s="12"/>
       <c r="T99" s="12"/>
-      <c r="U99" s="20"/>
+      <c r="U99" s="19"/>
       <c r="V99" s="12">
         <v>1.18</v>
       </c>
@@ -15813,13 +15812,13 @@
       <c r="N100" s="12">
         <v>1</v>
       </c>
-      <c r="O100" s="20"/>
+      <c r="O100" s="19"/>
       <c r="P100" s="12"/>
       <c r="Q100" s="12"/>
-      <c r="R100" s="20"/>
+      <c r="R100" s="19"/>
       <c r="S100" s="12"/>
       <c r="T100" s="12"/>
-      <c r="U100" s="20"/>
+      <c r="U100" s="19"/>
       <c r="V100" s="12">
         <v>1.2</v>
       </c>
@@ -15870,15 +15869,15 @@
       <c r="N101" s="12">
         <v>1</v>
       </c>
-      <c r="O101" s="20">
+      <c r="O101" s="19">
         <v>0.25</v>
       </c>
       <c r="P101" s="12"/>
       <c r="Q101" s="12"/>
-      <c r="R101" s="20"/>
+      <c r="R101" s="19"/>
       <c r="S101" s="12"/>
       <c r="T101" s="12"/>
-      <c r="U101" s="20"/>
+      <c r="U101" s="19"/>
       <c r="V101" s="12">
         <v>1.8</v>
       </c>
@@ -15929,15 +15928,15 @@
       <c r="N102" s="12">
         <v>1</v>
       </c>
-      <c r="O102" s="20">
+      <c r="O102" s="19">
         <v>0.7</v>
       </c>
       <c r="P102" s="12"/>
       <c r="Q102" s="12"/>
-      <c r="R102" s="20"/>
+      <c r="R102" s="19"/>
       <c r="S102" s="12"/>
       <c r="T102" s="12"/>
-      <c r="U102" s="20"/>
+      <c r="U102" s="19"/>
       <c r="V102" s="12">
         <v>1.22</v>
       </c>
@@ -15988,15 +15987,15 @@
       <c r="N103" s="12">
         <v>1</v>
       </c>
-      <c r="O103" s="20">
+      <c r="O103" s="19">
         <v>0.5</v>
       </c>
       <c r="P103" s="12"/>
       <c r="Q103" s="12"/>
-      <c r="R103" s="20"/>
+      <c r="R103" s="19"/>
       <c r="S103" s="12"/>
       <c r="T103" s="12"/>
-      <c r="U103" s="20"/>
+      <c r="U103" s="19"/>
       <c r="V103" s="12">
         <v>1.3</v>
       </c>
@@ -16043,15 +16042,15 @@
       <c r="N104" s="12">
         <v>1</v>
       </c>
-      <c r="O104" s="20">
+      <c r="O104" s="19">
         <v>0.3</v>
       </c>
       <c r="P104" s="12"/>
       <c r="Q104" s="12"/>
-      <c r="R104" s="20"/>
+      <c r="R104" s="19"/>
       <c r="S104" s="12"/>
       <c r="T104" s="12"/>
-      <c r="U104" s="20"/>
+      <c r="U104" s="19"/>
       <c r="V104" s="12">
         <v>1.4</v>
       </c>
@@ -16098,13 +16097,13 @@
       <c r="N105" s="12">
         <v>1</v>
       </c>
-      <c r="O105" s="20"/>
+      <c r="O105" s="19"/>
       <c r="P105" s="12"/>
       <c r="Q105" s="12"/>
-      <c r="R105" s="20"/>
+      <c r="R105" s="19"/>
       <c r="S105" s="12"/>
       <c r="T105" s="12"/>
-      <c r="U105" s="20"/>
+      <c r="U105" s="19"/>
       <c r="V105" s="12">
         <v>1.3</v>
       </c>
@@ -16151,15 +16150,15 @@
       <c r="N106" s="12">
         <v>1</v>
       </c>
-      <c r="O106" s="20">
+      <c r="O106" s="19">
         <v>0.5</v>
       </c>
       <c r="P106" s="12"/>
       <c r="Q106" s="12"/>
-      <c r="R106" s="20"/>
+      <c r="R106" s="19"/>
       <c r="S106" s="12"/>
       <c r="T106" s="12"/>
-      <c r="U106" s="20"/>
+      <c r="U106" s="19"/>
       <c r="V106" s="12">
         <v>1.25</v>
       </c>
@@ -16206,13 +16205,13 @@
       <c r="N107" s="12">
         <v>1</v>
       </c>
-      <c r="O107" s="20"/>
+      <c r="O107" s="19"/>
       <c r="P107" s="12"/>
       <c r="Q107" s="12"/>
-      <c r="R107" s="20"/>
+      <c r="R107" s="19"/>
       <c r="S107" s="12"/>
       <c r="T107" s="12"/>
-      <c r="U107" s="20"/>
+      <c r="U107" s="19"/>
       <c r="V107" s="12">
         <v>1.4</v>
       </c>
@@ -16259,13 +16258,13 @@
       <c r="N108" s="12">
         <v>1</v>
       </c>
-      <c r="O108" s="20"/>
+      <c r="O108" s="19"/>
       <c r="P108" s="12"/>
       <c r="Q108" s="12"/>
-      <c r="R108" s="20"/>
+      <c r="R108" s="19"/>
       <c r="S108" s="12"/>
       <c r="T108" s="12"/>
-      <c r="U108" s="20"/>
+      <c r="U108" s="19"/>
       <c r="V108" s="12">
         <v>1.4</v>
       </c>
@@ -16312,13 +16311,13 @@
       <c r="N109" s="12">
         <v>1</v>
       </c>
-      <c r="O109" s="20"/>
+      <c r="O109" s="19"/>
       <c r="P109" s="12"/>
       <c r="Q109" s="12"/>
-      <c r="R109" s="20"/>
+      <c r="R109" s="19"/>
       <c r="S109" s="12"/>
       <c r="T109" s="12"/>
-      <c r="U109" s="20"/>
+      <c r="U109" s="19"/>
       <c r="V109" s="12">
         <v>1.4</v>
       </c>
@@ -16365,15 +16364,15 @@
       <c r="N110" s="12">
         <v>1</v>
       </c>
-      <c r="O110" s="20">
+      <c r="O110" s="19">
         <v>0.99</v>
       </c>
       <c r="P110" s="12"/>
       <c r="Q110" s="12"/>
-      <c r="R110" s="20"/>
+      <c r="R110" s="19"/>
       <c r="S110" s="12"/>
       <c r="T110" s="12"/>
-      <c r="U110" s="20"/>
+      <c r="U110" s="19"/>
       <c r="V110" s="12">
         <v>1.3</v>
       </c>
@@ -16420,13 +16419,13 @@
       <c r="N111" s="12">
         <v>1</v>
       </c>
-      <c r="O111" s="20"/>
+      <c r="O111" s="19"/>
       <c r="P111" s="12"/>
       <c r="Q111" s="12"/>
-      <c r="R111" s="20"/>
+      <c r="R111" s="19"/>
       <c r="S111" s="12"/>
       <c r="T111" s="12"/>
-      <c r="U111" s="20"/>
+      <c r="U111" s="19"/>
       <c r="V111" s="12">
         <v>1.2</v>
       </c>
@@ -16473,13 +16472,13 @@
       <c r="N112" s="12">
         <v>1</v>
       </c>
-      <c r="O112" s="20"/>
+      <c r="O112" s="19"/>
       <c r="P112" s="12"/>
       <c r="Q112" s="12"/>
-      <c r="R112" s="20"/>
+      <c r="R112" s="19"/>
       <c r="S112" s="12"/>
       <c r="T112" s="12"/>
-      <c r="U112" s="20"/>
+      <c r="U112" s="19"/>
       <c r="V112" s="12">
         <v>1.43</v>
       </c>
@@ -16526,13 +16525,13 @@
       <c r="N113" s="12">
         <v>1</v>
       </c>
-      <c r="O113" s="20"/>
+      <c r="O113" s="19"/>
       <c r="P113" s="12"/>
       <c r="Q113" s="12"/>
-      <c r="R113" s="20"/>
+      <c r="R113" s="19"/>
       <c r="S113" s="12"/>
       <c r="T113" s="12"/>
-      <c r="U113" s="20"/>
+      <c r="U113" s="19"/>
       <c r="V113" s="12">
         <v>1.2</v>
       </c>
@@ -16579,13 +16578,13 @@
       <c r="N114" s="12">
         <v>1</v>
       </c>
-      <c r="O114" s="20"/>
+      <c r="O114" s="19"/>
       <c r="P114" s="12"/>
       <c r="Q114" s="12"/>
-      <c r="R114" s="20"/>
+      <c r="R114" s="19"/>
       <c r="S114" s="12"/>
       <c r="T114" s="12"/>
-      <c r="U114" s="20"/>
+      <c r="U114" s="19"/>
       <c r="V114" s="12">
         <v>1.4</v>
       </c>
@@ -16632,13 +16631,13 @@
       <c r="N115" s="12">
         <v>1</v>
       </c>
-      <c r="O115" s="20"/>
+      <c r="O115" s="19"/>
       <c r="P115" s="12"/>
       <c r="Q115" s="12"/>
-      <c r="R115" s="20"/>
+      <c r="R115" s="19"/>
       <c r="S115" s="12"/>
       <c r="T115" s="12"/>
-      <c r="U115" s="20"/>
+      <c r="U115" s="19"/>
       <c r="V115" s="12">
         <v>1.3</v>
       </c>
@@ -16685,15 +16684,15 @@
       <c r="N116" s="12">
         <v>1</v>
       </c>
-      <c r="O116" s="20">
+      <c r="O116" s="19">
         <v>0.99</v>
       </c>
       <c r="P116" s="12"/>
       <c r="Q116" s="12"/>
-      <c r="R116" s="20"/>
+      <c r="R116" s="19"/>
       <c r="S116" s="12"/>
       <c r="T116" s="12"/>
-      <c r="U116" s="20"/>
+      <c r="U116" s="19"/>
       <c r="V116" s="12">
         <v>1.3</v>
       </c>
@@ -16740,13 +16739,13 @@
       <c r="N117" s="12">
         <v>1</v>
       </c>
-      <c r="O117" s="20"/>
+      <c r="O117" s="19"/>
       <c r="P117" s="12"/>
       <c r="Q117" s="12"/>
-      <c r="R117" s="20"/>
+      <c r="R117" s="19"/>
       <c r="S117" s="12"/>
       <c r="T117" s="12"/>
-      <c r="U117" s="20"/>
+      <c r="U117" s="19"/>
       <c r="V117" s="12">
         <v>1.4</v>
       </c>
@@ -16793,13 +16792,13 @@
       <c r="N118" s="12">
         <v>1</v>
       </c>
-      <c r="O118" s="20"/>
+      <c r="O118" s="19"/>
       <c r="P118" s="12"/>
       <c r="Q118" s="12"/>
-      <c r="R118" s="20"/>
+      <c r="R118" s="19"/>
       <c r="S118" s="12"/>
       <c r="T118" s="12"/>
-      <c r="U118" s="20"/>
+      <c r="U118" s="19"/>
       <c r="V118" s="12">
         <v>1.4</v>
       </c>
@@ -16846,13 +16845,13 @@
       <c r="N119" s="12">
         <v>1</v>
       </c>
-      <c r="O119" s="20"/>
+      <c r="O119" s="19"/>
       <c r="P119" s="12"/>
       <c r="Q119" s="12"/>
-      <c r="R119" s="20"/>
+      <c r="R119" s="19"/>
       <c r="S119" s="12"/>
       <c r="T119" s="12"/>
-      <c r="U119" s="20"/>
+      <c r="U119" s="19"/>
       <c r="V119" s="12">
         <v>1.4</v>
       </c>
@@ -16899,13 +16898,13 @@
       <c r="N120" s="12">
         <v>1</v>
       </c>
-      <c r="O120" s="20"/>
+      <c r="O120" s="19"/>
       <c r="P120" s="12"/>
       <c r="Q120" s="12"/>
-      <c r="R120" s="20"/>
+      <c r="R120" s="19"/>
       <c r="S120" s="12"/>
       <c r="T120" s="12"/>
-      <c r="U120" s="20"/>
+      <c r="U120" s="19"/>
       <c r="V120" s="12">
         <v>1.5</v>
       </c>
@@ -16952,7 +16951,7 @@
       <c r="N121" s="12">
         <v>1</v>
       </c>
-      <c r="O121" s="20">
+      <c r="O121" s="19">
         <v>0.5</v>
       </c>
       <c r="P121" s="12">
@@ -16961,12 +16960,12 @@
       <c r="Q121" s="12">
         <v>1</v>
       </c>
-      <c r="R121" s="20">
+      <c r="R121" s="19">
         <v>0.99</v>
       </c>
       <c r="S121" s="12"/>
       <c r="T121" s="12"/>
-      <c r="U121" s="20"/>
+      <c r="U121" s="19"/>
       <c r="V121" s="12">
         <v>1.3</v>
       </c>
@@ -16975,58 +16974,58 @@
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E125" s="16"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="Q125" s="17"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="Q125" s="16"/>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E126" s="16"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="Q126" s="17"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="Q126" s="16"/>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E127" s="16"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="Q127" s="17"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="Q127" s="16"/>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="E128" s="16"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="Q128" s="17"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="Q128" s="16"/>
     </row>
     <row r="129" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E129" s="16"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
     </row>
     <row r="131" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E131" s="18"/>
-      <c r="F131" s="18"/>
-      <c r="G131" s="18"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
     </row>
     <row r="132" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E132" s="18"/>
-      <c r="F132" s="18"/>
-      <c r="G132" s="18"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
     </row>
     <row r="133" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E133" s="18"/>
-      <c r="F133" s="18"/>
-      <c r="G133" s="18"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
     </row>
     <row r="134" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E134" s="18"/>
-      <c r="F134" s="18"/>
-      <c r="G134" s="18"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
     </row>
     <row r="135" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E135" s="18"/>
-      <c r="F135" s="18"/>
-      <c r="G135" s="18"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
